--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_ward471419_inductance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_ward471419_inductance.xlsx
@@ -1109,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.00000283507352</v>
+        <v>50.0000028350735</v>
       </c>
       <c r="D2">
-        <v>50.00000283507352</v>
+        <v>50.0000028350735</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509631175</v>
+        <v>288.6751509631174</v>
       </c>
       <c r="G2">
-        <v>288.6751509631175</v>
+        <v>288.6751509631174</v>
       </c>
       <c r="H2">
         <v>0.01094228901744874</v>
@@ -1130,19 +1130,19 @@
         <v>0.1094384002926759</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714028</v>
+        <v>0.01094540889714029</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686273</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.693607481936279E-11</v>
+        <v>-8.692827120099949E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1201,16 +1201,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464775</v>
+        <v>0.9526279474464779</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172767</v>
+        <v>0.952627982117277</v>
       </c>
       <c r="Q3">
-        <v>8.709499246996188E-08</v>
+        <v>8.709500393459348E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777265</v>
+        <v>0.9526279330777272</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860256</v>
+        <v>0.9526279964860263</v>
       </c>
       <c r="Q4">
-        <v>5.191990347282305E-07</v>
+        <v>5.191989448263055E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999994807921</v>
+        <v>179.9999994807922</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1319,22 +1319,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027247</v>
+        <v>0.9526279361027257</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610262</v>
+        <v>0.9526279934610266</v>
       </c>
       <c r="Q5">
-        <v>4.282295832224248E-07</v>
+        <v>4.282296529354279E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995717614</v>
+        <v>179.9999995717615</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652239</v>
+        <v>0.952627931565225</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279979985258</v>
+        <v>0.9526279979985265</v>
       </c>
       <c r="Q6">
-        <v>5.646834142251723E-07</v>
+        <v>5.646835109491083E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994353075</v>
+        <v>179.9999994353076</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.952627927783973</v>
+        <v>0.9526279277839744</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797757</v>
+        <v>0.9526280017797766</v>
       </c>
       <c r="Q7">
-        <v>6.783949511990454E-07</v>
+        <v>6.783950550809197E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277226</v>
+        <v>0.9526279270277241</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360256</v>
+        <v>0.9526280025360266</v>
       </c>
       <c r="Q8">
-        <v>7.011372570601203E-07</v>
+        <v>7.011373664893812E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1555,22 +1555,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152225</v>
+        <v>0.9526279255152239</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485255</v>
+        <v>0.9526280040485265</v>
       </c>
       <c r="Q9">
-        <v>7.466218781298922E-07</v>
+        <v>7.466219820117071E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.999999253369</v>
+        <v>179.9999992533691</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1614,22 +1614,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027221</v>
+        <v>0.9526279240027234</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610256</v>
+        <v>0.9526280055610263</v>
       </c>
       <c r="Q10">
-        <v>7.921064882606811E-07</v>
+        <v>7.921065959976781E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992078844</v>
+        <v>179.9999992078845</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1673,22 +1673,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464722</v>
+        <v>0.9526279232464733</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172756</v>
+        <v>0.9526280063172765</v>
       </c>
       <c r="Q11">
-        <v>8.148487927627507E-07</v>
+        <v>8.148488966445174E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999991851421</v>
+        <v>179.9999991851422</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1732,16 +1732,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279451777269</v>
+        <v>0.9526279451777273</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860269</v>
+        <v>0.9526279843860272</v>
       </c>
       <c r="Q12">
-        <v>1.55321914501209E-07</v>
+        <v>1.553219185342602E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1791,22 +1791,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.952627945177727</v>
+        <v>0.9526279451777276</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860266</v>
+        <v>0.9526279843860274</v>
       </c>
       <c r="Q13">
-        <v>1.55321866260643E-07</v>
+        <v>1.553219175685164E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999998446691</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627942908977</v>
+        <v>0.9526279429089776</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547763</v>
+        <v>0.9526279866547767</v>
       </c>
       <c r="Q14">
-        <v>2.235488939441625E-07</v>
+        <v>2.235488737210155E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999997764422</v>
+        <v>179.9999997764423</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1909,22 +1909,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.952627941396476</v>
+        <v>0.9526279413964769</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279881672765</v>
+        <v>0.9526279881672768</v>
       </c>
       <c r="Q15">
-        <v>2.69033438867816E-07</v>
+        <v>2.690334868918864E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997309576</v>
+        <v>179.9999997309577</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627945933977</v>
+        <v>0.9526279459339776</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297772</v>
       </c>
       <c r="Q16">
-        <v>1.325796071910614E-07</v>
+        <v>1.325796073689071E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339771</v>
+        <v>0.9526279459339776</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297766</v>
+        <v>0.9526279836297772</v>
       </c>
       <c r="Q17">
-        <v>1.325795819212128E-07</v>
+        <v>1.325796025698972E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998674114</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277268</v>
+        <v>0.9526279391277273</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360259</v>
+        <v>0.9526279904360264</v>
       </c>
       <c r="Q18">
-        <v>3.37260491280485E-07</v>
+        <v>3.372604324730893E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996627306</v>
+        <v>179.9999996627307</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2145,16 +2145,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027264</v>
+        <v>0.9526279361027272</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610256</v>
+        <v>0.9526279934610263</v>
       </c>
       <c r="Q19">
-        <v>4.282297738859931E-07</v>
+        <v>4.282296918966038E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339765</v>
+        <v>0.9526279338339771</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297755</v>
+        <v>0.9526279957297762</v>
       </c>
       <c r="Q20">
-        <v>4.964567247556775E-07</v>
+        <v>4.9645663492615E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999995035344</v>
+        <v>179.9999995035345</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2263,22 +2263,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777265</v>
+        <v>0.952627933077727</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279964860256</v>
+        <v>0.9526279964860263</v>
       </c>
       <c r="Q21">
-        <v>5.191990385834482E-07</v>
+        <v>5.191989448986904E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999994807921</v>
+        <v>179.9999994807922</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2376,7 @@
         <v>8.768652669144455</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
@@ -2639,10 +2639,10 @@
         <v>1.08450739798448</v>
       </c>
       <c r="Q6">
-        <v>29.14059842362746</v>
+        <v>29.14059842362745</v>
       </c>
       <c r="R6">
-        <v>-91.10214736483698</v>
+        <v>-91.10214736483699</v>
       </c>
       <c r="S6">
         <v>150.3279626332291</v>
@@ -2701,7 +2701,7 @@
         <v>29.14059842563627</v>
       </c>
       <c r="R7">
-        <v>-91.10214735147136</v>
+        <v>-91.10214735147137</v>
       </c>
       <c r="S7">
         <v>150.3279626377062</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.10250319873549</v>
+        <v>1.102503198735491</v>
       </c>
       <c r="O10">
         <v>1.07393623763207</v>
@@ -2934,7 +2934,7 @@
         <v>1.084507398196739</v>
       </c>
       <c r="Q11">
-        <v>29.14059842804684</v>
+        <v>29.14059842804685</v>
       </c>
       <c r="R11">
         <v>-91.10214733543262</v>
@@ -2996,7 +2996,7 @@
         <v>29.14059841639571</v>
       </c>
       <c r="R12">
-        <v>-91.10214741295322</v>
+        <v>-91.1021474129532</v>
       </c>
       <c r="S12">
         <v>150.3279626171115</v>
@@ -3055,7 +3055,7 @@
         <v>29.14059841639571</v>
       </c>
       <c r="R13">
-        <v>-91.10214741295322</v>
+        <v>-91.1021474129532</v>
       </c>
       <c r="S13">
         <v>150.3279626171115</v>
@@ -3634,13 +3634,13 @@
         <v>0.1094384002926759</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714028</v>
+        <v>0.01094540889714029</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686273</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -3767,7 +3767,7 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O4">
-        <v>1.073936237740625</v>
+        <v>1.073936237740624</v>
       </c>
       <c r="P4">
         <v>1.084507397956761</v>
@@ -3835,7 +3835,7 @@
         <v>29.14059842112402</v>
       </c>
       <c r="R5">
-        <v>-91.10214737876403</v>
+        <v>-91.10214737876404</v>
       </c>
       <c r="S5">
         <v>150.3279626289879</v>
@@ -3950,7 +3950,7 @@
         <v>1.084507398091835</v>
       </c>
       <c r="Q7">
-        <v>29.14059842554342</v>
+        <v>29.14059842554341</v>
       </c>
       <c r="R7">
         <v>-91.10214734935968</v>
@@ -4006,13 +4006,13 @@
         <v>1.073936237650113</v>
       </c>
       <c r="P8">
-        <v>1.084507398111132</v>
+        <v>1.084507398111131</v>
       </c>
       <c r="Q8">
-        <v>29.14059842594517</v>
+        <v>29.14059842594518</v>
       </c>
       <c r="R8">
-        <v>-91.10214734668655</v>
+        <v>-91.10214734668656</v>
       </c>
       <c r="S8">
         <v>150.327962639733</v>
@@ -4071,7 +4071,7 @@
         <v>29.1405984267487</v>
       </c>
       <c r="R9">
-        <v>-91.1021473413403</v>
+        <v>-91.10214734134031</v>
       </c>
       <c r="S9">
         <v>150.3279626415238</v>
@@ -4481,10 +4481,10 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q16">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R16">
-        <v>-91.10214741351463</v>
+        <v>-91.10214741351464</v>
       </c>
       <c r="S16">
         <v>150.3279626173473</v>
@@ -4540,10 +4540,10 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q17">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R17">
-        <v>-91.10214741351463</v>
+        <v>-91.10214741351464</v>
       </c>
       <c r="S17">
         <v>150.3279626173473</v>
@@ -4661,7 +4661,7 @@
         <v>29.14059842112403</v>
       </c>
       <c r="R19">
-        <v>-91.10214737876403</v>
+        <v>-91.10214737876404</v>
       </c>
       <c r="S19">
         <v>150.3279626289879</v>
@@ -4717,7 +4717,7 @@
         <v>1.084507397937464</v>
       </c>
       <c r="Q20">
-        <v>29.14059842232932</v>
+        <v>29.14059842232931</v>
       </c>
       <c r="R20">
         <v>-91.10214737074467</v>
@@ -4770,7 +4770,7 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O21">
-        <v>1.073936237740625</v>
+        <v>1.073936237740624</v>
       </c>
       <c r="P21">
         <v>1.084507397956761</v>
@@ -4865,25 +4865,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="D2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="G2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="H2">
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -4892,10 +4892,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.8660254037845055</v>
@@ -4907,7 +4907,7 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720094406120944E-10</v>
+        <v>1.720009252442446E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4957,16 +4957,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.866025388164028</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054648</v>
+        <v>0.8660254194054651</v>
       </c>
       <c r="Q3">
-        <v>8.659293913594348E-08</v>
+        <v>8.659297062632514E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5016,22 +5016,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015304</v>
+        <v>0.8660253751015301</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679615</v>
       </c>
       <c r="Q4">
-        <v>9.162327201680452E-07</v>
+        <v>9.162328170979513E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837586</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5075,22 +5075,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515307</v>
+        <v>0.8660253778515299</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179628</v>
+        <v>0.8660254297179623</v>
       </c>
       <c r="Q5">
-        <v>7.415718312251134E-07</v>
+        <v>7.415718405344335E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5134,22 +5134,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265317</v>
+        <v>0.8660253737265309</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429618</v>
+        <v>0.866025433842961</v>
       </c>
       <c r="Q6">
-        <v>1.003563397001439E-06</v>
+        <v>1.00356339708372E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999989964283</v>
+        <v>179.9999989964282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5193,22 +5193,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890329</v>
+        <v>0.8660253702890316</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804611</v>
+        <v>0.8660254372804601</v>
       </c>
       <c r="Q7">
-        <v>1.221889697911259E-06</v>
+        <v>1.221889692449563E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.9999987781019</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5252,22 +5252,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015331</v>
+        <v>0.8660253696015319</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679611</v>
+        <v>0.8660254379679596</v>
       </c>
       <c r="Q8">
-        <v>1.265554953710821E-06</v>
+        <v>1.265554952610462E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344369</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5311,22 +5311,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265332</v>
+        <v>0.8660253682265321</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429609</v>
+        <v>0.8660254393429596</v>
       </c>
       <c r="Q9">
-        <v>1.352885475375469E-06</v>
+        <v>1.352885469913707E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471064</v>
+        <v>179.9999986471062</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -5370,22 +5370,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515335</v>
+        <v>0.8660253668515322</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179605</v>
+        <v>0.8660254407179595</v>
       </c>
       <c r="Q10">
-        <v>1.440215999099244E-06</v>
+        <v>1.440215993637442E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597759</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -5429,22 +5429,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640337</v>
+        <v>0.8660253661640325</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054604</v>
+        <v>0.8660254414054592</v>
       </c>
       <c r="Q11">
-        <v>1.483881255568643E-06</v>
+        <v>1.483881250106828E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161107</v>
+        <v>179.9999985161104</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5488,22 +5488,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015281</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679646</v>
+        <v>0.8660254214679648</v>
       </c>
       <c r="Q12">
-        <v>2.175887004705142E-07</v>
+        <v>2.17588736836049E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824027</v>
+        <v>179.9999997824026</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -5547,16 +5547,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679644</v>
+        <v>0.8660254214679646</v>
       </c>
       <c r="Q13">
-        <v>2.175886925145264E-07</v>
+        <v>2.175887532105491E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5606,16 +5606,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390287</v>
+        <v>0.8660253840390284</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304639</v>
+        <v>0.8660254235304641</v>
       </c>
       <c r="Q14">
-        <v>3.485844602277924E-07</v>
+        <v>3.485845060398752E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640294</v>
+        <v>0.8660253826640287</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -5674,13 +5674,13 @@
         <v>0.8660254249054637</v>
       </c>
       <c r="Q15">
-        <v>4.35915007230062E-07</v>
+        <v>4.359150350997553E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640765</v>
+        <v>179.9999995640764</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -5724,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890285</v>
+        <v>0.866025386789028</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804646</v>
+        <v>0.866025420780465</v>
       </c>
       <c r="Q16">
-        <v>1.739234460116232E-07</v>
+        <v>1.739234823771719E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890281</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.866025420780465</v>
       </c>
       <c r="Q17">
-        <v>1.739234363282679E-07</v>
+        <v>1.739234821462187E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015292</v>
+        <v>0.866025380601529</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.866025426967963</v>
+        <v>0.8660254269679633</v>
       </c>
       <c r="Q18">
-        <v>5.669107169198445E-07</v>
+        <v>5.669107740042988E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330807</v>
+        <v>179.9999994330806</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -5901,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515294</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -5910,13 +5910,13 @@
         <v>0.8660254297179626</v>
       </c>
       <c r="Q19">
-        <v>7.415717199790276E-07</v>
+        <v>7.415718014921288E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890303</v>
+        <v>0.8660253757890297</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -5969,13 +5969,13 @@
         <v>0.8660254317804617</v>
       </c>
       <c r="Q20">
-        <v>8.725674687538727E-07</v>
+        <v>8.725675603177291E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.999999127424</v>
+        <v>179.9999991274239</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -6019,22 +6019,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015304</v>
+        <v>0.86602537510153</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679616</v>
       </c>
       <c r="Q21">
-        <v>9.162327201680452E-07</v>
+        <v>9.162328032504085E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837586</v>
       </c>
     </row>
   </sheetData>
@@ -6117,25 +6117,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="D2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="G2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="H2">
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -6144,10 +6144,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.8660254037845055</v>
@@ -6159,7 +6159,7 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720094406120944E-10</v>
+        <v>1.720009252442446E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.866025388164028</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054648</v>
+        <v>0.8660254194054651</v>
       </c>
       <c r="Q3">
-        <v>8.659293913594348E-08</v>
+        <v>8.659297062632514E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6268,22 +6268,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015304</v>
+        <v>0.8660253751015301</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679615</v>
       </c>
       <c r="Q4">
-        <v>9.162327201680452E-07</v>
+        <v>9.162328170979513E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837586</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6327,22 +6327,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515307</v>
+        <v>0.8660253778515299</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179628</v>
+        <v>0.8660254297179623</v>
       </c>
       <c r="Q5">
-        <v>7.415718312251134E-07</v>
+        <v>7.415718405344335E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6386,22 +6386,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265317</v>
+        <v>0.8660253737265309</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429618</v>
+        <v>0.866025433842961</v>
       </c>
       <c r="Q6">
-        <v>1.003563397001439E-06</v>
+        <v>1.00356339708372E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999989964283</v>
+        <v>179.9999989964282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -6445,22 +6445,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890329</v>
+        <v>0.8660253702890316</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804611</v>
+        <v>0.8660254372804601</v>
       </c>
       <c r="Q7">
-        <v>1.221889697911259E-06</v>
+        <v>1.221889692449563E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.9999987781019</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6504,22 +6504,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015331</v>
+        <v>0.8660253696015319</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679611</v>
+        <v>0.8660254379679596</v>
       </c>
       <c r="Q8">
-        <v>1.265554953710821E-06</v>
+        <v>1.265554952610462E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344369</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6563,22 +6563,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265332</v>
+        <v>0.8660253682265321</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429609</v>
+        <v>0.8660254393429596</v>
       </c>
       <c r="Q9">
-        <v>1.352885475375469E-06</v>
+        <v>1.352885469913707E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471064</v>
+        <v>179.9999986471062</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6622,22 +6622,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515335</v>
+        <v>0.8660253668515322</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179605</v>
+        <v>0.8660254407179595</v>
       </c>
       <c r="Q10">
-        <v>1.440215999099244E-06</v>
+        <v>1.440215993637442E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597759</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6681,22 +6681,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640337</v>
+        <v>0.8660253661640325</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054604</v>
+        <v>0.8660254414054592</v>
       </c>
       <c r="Q11">
-        <v>1.483881255568643E-06</v>
+        <v>1.483881250106828E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161107</v>
+        <v>179.9999985161104</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6740,22 +6740,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015281</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679646</v>
+        <v>0.8660254214679648</v>
       </c>
       <c r="Q12">
-        <v>2.175887004705142E-07</v>
+        <v>2.17588736836049E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824027</v>
+        <v>179.9999997824026</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6799,16 +6799,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679644</v>
+        <v>0.8660254214679646</v>
       </c>
       <c r="Q13">
-        <v>2.175886925145264E-07</v>
+        <v>2.175887532105491E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6858,16 +6858,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390287</v>
+        <v>0.8660253840390284</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304639</v>
+        <v>0.8660254235304641</v>
       </c>
       <c r="Q14">
-        <v>3.485844602277924E-07</v>
+        <v>3.485845060398752E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640294</v>
+        <v>0.8660253826640287</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -6926,13 +6926,13 @@
         <v>0.8660254249054637</v>
       </c>
       <c r="Q15">
-        <v>4.35915007230062E-07</v>
+        <v>4.359150350997553E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640765</v>
+        <v>179.9999995640764</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6976,16 +6976,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890285</v>
+        <v>0.866025386789028</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804646</v>
+        <v>0.866025420780465</v>
       </c>
       <c r="Q16">
-        <v>1.739234460116232E-07</v>
+        <v>1.739234823771719E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7035,16 +7035,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890281</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.866025420780465</v>
       </c>
       <c r="Q17">
-        <v>1.739234363282679E-07</v>
+        <v>1.739234821462187E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7094,22 +7094,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015292</v>
+        <v>0.866025380601529</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.866025426967963</v>
+        <v>0.8660254269679633</v>
       </c>
       <c r="Q18">
-        <v>5.669107169198445E-07</v>
+        <v>5.669107740042988E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330807</v>
+        <v>179.9999994330806</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515294</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -7162,13 +7162,13 @@
         <v>0.8660254297179626</v>
       </c>
       <c r="Q19">
-        <v>7.415717199790276E-07</v>
+        <v>7.415718014921288E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -7212,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890303</v>
+        <v>0.8660253757890297</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -7221,13 +7221,13 @@
         <v>0.8660254317804617</v>
       </c>
       <c r="Q20">
-        <v>8.725674687538727E-07</v>
+        <v>8.725675603177291E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.999999127424</v>
+        <v>179.9999991274239</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -7271,22 +7271,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015304</v>
+        <v>0.86602537510153</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679616</v>
       </c>
       <c r="Q21">
-        <v>9.162327201680452E-07</v>
+        <v>9.162328032504085E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837586</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +7387,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -7396,10 +7396,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>1.002551066141495</v>
@@ -7461,13 +7461,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002551065603661</v>
+        <v>1.002551065603662</v>
       </c>
       <c r="O3">
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081652</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -7526,7 +7526,7 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
         <v>29.02648253625838</v>
@@ -7585,7 +7585,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
         <v>29.02648253197877</v>
@@ -7641,7 +7641,7 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792642</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
@@ -7703,7 +7703,7 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879737</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
         <v>29.02648254374771</v>
@@ -7818,7 +7818,7 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208044</v>
       </c>
       <c r="P9">
         <v>0.9840663106779517</v>
@@ -7936,13 +7936,13 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363821</v>
       </c>
       <c r="P11">
         <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016712</v>
+        <v>29.02648255016713</v>
       </c>
       <c r="R11">
         <v>-91.24839353657991</v>
@@ -7995,16 +7995,16 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O12">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P12">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q12">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R12">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S12">
         <v>150.3745452886059</v>
@@ -8063,7 +8063,7 @@
         <v>29.02648251913994</v>
       </c>
       <c r="R13">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S13">
         <v>150.3745452886059</v>
@@ -8113,10 +8113,10 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
-        <v>0.9840663099881208</v>
+        <v>0.9840663099881211</v>
       </c>
       <c r="Q14">
         <v>29.02648252234964</v>
@@ -8178,7 +8178,7 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448946</v>
+        <v>29.02648252448945</v>
       </c>
       <c r="R15">
         <v>-91.24839362895553</v>
@@ -8231,16 +8231,16 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
-        <v>0.9840663098681504</v>
+        <v>0.9840663098681505</v>
       </c>
       <c r="Q16">
         <v>29.02648251807003</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S16">
         <v>150.3745452878344</v>
@@ -8290,16 +8290,16 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
-        <v>0.9840663098681504</v>
+        <v>0.9840663098681505</v>
       </c>
       <c r="Q17">
         <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
         <v>150.3745452878344</v>
@@ -8352,7 +8352,7 @@
         <v>0.9731342572273386</v>
       </c>
       <c r="P18">
-        <v>0.9840663101380841</v>
+        <v>0.9840663101380842</v>
       </c>
       <c r="Q18">
         <v>29.02648252769916</v>
@@ -8411,7 +8411,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
         <v>29.02648253197877</v>
@@ -8467,10 +8467,10 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
-        <v>0.9840663103480326</v>
+        <v>0.9840663103480325</v>
       </c>
       <c r="Q20">
         <v>29.02648253518848</v>
@@ -8529,7 +8529,7 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
         <v>29.02648253625838</v>
@@ -8639,7 +8639,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -8648,10 +8648,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>1.002551066141495</v>
@@ -8713,13 +8713,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002551065603661</v>
+        <v>1.002551065603662</v>
       </c>
       <c r="O3">
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081652</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -8778,7 +8778,7 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
         <v>29.02648253625838</v>
@@ -8837,7 +8837,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
         <v>29.02648253197877</v>
@@ -8893,7 +8893,7 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792642</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
@@ -8955,7 +8955,7 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879737</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
         <v>29.02648254374771</v>
@@ -9070,7 +9070,7 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208044</v>
       </c>
       <c r="P9">
         <v>0.9840663106779517</v>
@@ -9188,13 +9188,13 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363821</v>
       </c>
       <c r="P11">
         <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016712</v>
+        <v>29.02648255016713</v>
       </c>
       <c r="R11">
         <v>-91.24839353657991</v>
@@ -9247,16 +9247,16 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O12">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P12">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q12">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R12">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S12">
         <v>150.3745452886059</v>
@@ -9315,7 +9315,7 @@
         <v>29.02648251913994</v>
       </c>
       <c r="R13">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S13">
         <v>150.3745452886059</v>
@@ -9365,10 +9365,10 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
-        <v>0.9840663099881208</v>
+        <v>0.9840663099881211</v>
       </c>
       <c r="Q14">
         <v>29.02648252234964</v>
@@ -9430,7 +9430,7 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448946</v>
+        <v>29.02648252448945</v>
       </c>
       <c r="R15">
         <v>-91.24839362895553</v>
@@ -9483,16 +9483,16 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
-        <v>0.9840663098681504</v>
+        <v>0.9840663098681505</v>
       </c>
       <c r="Q16">
         <v>29.02648251807003</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S16">
         <v>150.3745452878344</v>
@@ -9542,16 +9542,16 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
-        <v>0.9840663098681504</v>
+        <v>0.9840663098681505</v>
       </c>
       <c r="Q17">
         <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
         <v>150.3745452878344</v>
@@ -9604,7 +9604,7 @@
         <v>0.9731342572273386</v>
       </c>
       <c r="P18">
-        <v>0.9840663101380841</v>
+        <v>0.9840663101380842</v>
       </c>
       <c r="Q18">
         <v>29.02648252769916</v>
@@ -9663,7 +9663,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
         <v>29.02648253197877</v>
@@ -9719,10 +9719,10 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
-        <v>0.9840663103480326</v>
+        <v>0.9840663103480325</v>
       </c>
       <c r="Q20">
         <v>29.02648253518848</v>
@@ -9781,7 +9781,7 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
         <v>29.02648253625838</v>
@@ -9971,22 +9971,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350725803613437</v>
+        <v>0.6350725803613427</v>
       </c>
       <c r="O3">
         <v>1.100000023884846</v>
       </c>
       <c r="P3">
-        <v>0.6350673924404842</v>
+        <v>0.6350673924404837</v>
       </c>
       <c r="Q3">
-        <v>60.00252971452033</v>
+        <v>60.00252971452041</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S3">
-        <v>119.9977404895151</v>
+        <v>119.997740489515</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350725988789422</v>
+        <v>0.6350725988789414</v>
       </c>
       <c r="O4">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P4">
-        <v>0.6350673822186061</v>
+        <v>0.6350673822186046</v>
       </c>
       <c r="Q4">
-        <v>60.00252981471544</v>
+        <v>60.0025298147157</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S4">
-        <v>119.997741886172</v>
+        <v>119.9977418861719</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -10095,22 +10095,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350725949804997</v>
+        <v>0.6350725949804986</v>
       </c>
       <c r="O5">
         <v>1.100000023884847</v>
       </c>
       <c r="P5">
-        <v>0.6350673843705804</v>
+        <v>0.6350673843705785</v>
       </c>
       <c r="Q5">
-        <v>60.00252979362192</v>
+        <v>60.00252979362217</v>
       </c>
       <c r="R5">
         <v>-89.99999999999568</v>
       </c>
       <c r="S5">
-        <v>119.9977415921389</v>
+        <v>119.9977415921387</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,22 +10157,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350726008281623</v>
+        <v>0.6350726008281609</v>
       </c>
       <c r="O6">
         <v>1.100000023884847</v>
       </c>
       <c r="P6">
-        <v>0.6350673811426188</v>
+        <v>0.6350673811426162</v>
       </c>
       <c r="Q6">
-        <v>60.00252982526255</v>
+        <v>60.0025298252629</v>
       </c>
       <c r="R6">
         <v>-89.99999999999565</v>
       </c>
       <c r="S6">
-        <v>119.9977420331885</v>
+        <v>119.9977420331882</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10219,22 +10219,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350726057012144</v>
+        <v>0.6350726057012127</v>
       </c>
       <c r="O7">
         <v>1.100000023884848</v>
       </c>
       <c r="P7">
-        <v>0.6350673784526508</v>
+        <v>0.6350673784526474</v>
       </c>
       <c r="Q7">
-        <v>60.00252985162975</v>
+        <v>60.00252985163021</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999564</v>
+        <v>-89.99999999999562</v>
       </c>
       <c r="S7">
-        <v>119.9977424007298</v>
+        <v>119.9977424007295</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -10281,22 +10281,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350726066758249</v>
+        <v>0.6350726066758232</v>
       </c>
       <c r="O8">
         <v>1.100000023884848</v>
       </c>
       <c r="P8">
-        <v>0.6350673779146569</v>
+        <v>0.6350673779146536</v>
       </c>
       <c r="Q8">
-        <v>60.0025298569032</v>
+        <v>60.00252985690367</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999564</v>
+        <v>-89.99999999999561</v>
       </c>
       <c r="S8">
-        <v>119.997742474238</v>
+        <v>119.9977424742377</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -10343,22 +10343,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350726086250453</v>
+        <v>0.6350726086250437</v>
       </c>
       <c r="O9">
         <v>1.100000023884848</v>
       </c>
       <c r="P9">
-        <v>0.63506737683867</v>
+        <v>0.6350673768386667</v>
       </c>
       <c r="Q9">
-        <v>60.0025298674501</v>
+        <v>60.00252986745055</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S9">
-        <v>119.9977426212545</v>
+        <v>119.9977426212542</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.635072610574266</v>
+        <v>0.6350726105742643</v>
       </c>
       <c r="O10">
         <v>1.100000023884848</v>
       </c>
       <c r="P10">
-        <v>0.6350673757626826</v>
+        <v>0.6350673757626792</v>
       </c>
       <c r="Q10">
-        <v>60.00252987799702</v>
+        <v>60.00252987799747</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999561</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S10">
-        <v>119.997742768271</v>
+        <v>119.9977427682707</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -10467,22 +10467,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350726115488763</v>
+        <v>0.6350726115488746</v>
       </c>
       <c r="O11">
         <v>1.100000023884848</v>
       </c>
       <c r="P11">
-        <v>0.6350673752246887</v>
+        <v>0.6350673752246855</v>
       </c>
       <c r="Q11">
-        <v>60.00252988327051</v>
+        <v>60.00252988327095</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999559</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S11">
-        <v>119.9977428417793</v>
+        <v>119.9977428417789</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -10529,22 +10529,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350725832851748</v>
+        <v>0.6350725832851737</v>
       </c>
       <c r="O12">
         <v>1.100000023884846</v>
       </c>
       <c r="P12">
-        <v>0.6350673908265025</v>
+        <v>0.6350673908265022</v>
       </c>
       <c r="Q12">
-        <v>60.00252973034071</v>
+        <v>60.00252973034082</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S12">
-        <v>119.9977407100398</v>
+        <v>119.9977407100397</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -10591,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350725832851747</v>
+        <v>0.6350725832851739</v>
       </c>
       <c r="O13">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P13">
-        <v>0.6350673908265029</v>
+        <v>0.6350673908265025</v>
       </c>
       <c r="Q13">
-        <v>60.00252973034075</v>
+        <v>60.00252973034079</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S13">
-        <v>119.9977407100398</v>
+        <v>119.9977407100397</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -10653,22 +10653,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350725862090062</v>
+        <v>0.6350725862090052</v>
       </c>
       <c r="O14">
         <v>1.100000023884846</v>
       </c>
       <c r="P14">
-        <v>0.6350673892125229</v>
+        <v>0.6350673892125221</v>
       </c>
       <c r="Q14">
-        <v>60.00252974616085</v>
+        <v>60.00252974616101</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S14">
-        <v>119.9977409305646</v>
+        <v>119.9977409305645</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350725881582269</v>
+        <v>0.6350725881582259</v>
       </c>
       <c r="O15">
         <v>1.100000023884847</v>
       </c>
       <c r="P15">
-        <v>0.6350673881365356</v>
+        <v>0.6350673881365344</v>
       </c>
       <c r="Q15">
-        <v>60.00252975670783</v>
+        <v>60.00252975670801</v>
       </c>
       <c r="R15">
         <v>-89.99999999999569</v>
       </c>
       <c r="S15">
-        <v>119.9977410775811</v>
+        <v>119.997741077581</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -10777,22 +10777,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350725823105644</v>
+        <v>0.6350725823105632</v>
       </c>
       <c r="O16">
         <v>1.100000023884846</v>
       </c>
       <c r="P16">
-        <v>0.6350673913644965</v>
+        <v>0.6350673913644961</v>
       </c>
       <c r="Q16">
-        <v>60.00252972506726</v>
+        <v>60.00252972506734</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S16">
-        <v>119.9977406365315</v>
+        <v>119.9977406365314</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -10839,22 +10839,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350725823105644</v>
+        <v>0.6350725823105635</v>
       </c>
       <c r="O17">
         <v>1.100000023884846</v>
       </c>
       <c r="P17">
-        <v>0.6350673913644967</v>
+        <v>0.6350673913644965</v>
       </c>
       <c r="Q17">
-        <v>60.00252972506726</v>
+        <v>60.0025297250673</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S17">
-        <v>119.9977406365316</v>
+        <v>119.9977406365315</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350725910820585</v>
+        <v>0.6350725910820575</v>
       </c>
       <c r="O18">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P18">
-        <v>0.6350673865225552</v>
+        <v>0.6350673865225541</v>
       </c>
       <c r="Q18">
-        <v>60.00252977252797</v>
+        <v>60.00252977252818</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S18">
-        <v>119.9977412981059</v>
+        <v>119.9977412981058</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -10963,19 +10963,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350725949805003</v>
+        <v>0.6350725949804995</v>
       </c>
       <c r="O19">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P19">
-        <v>0.6350673843705809</v>
+        <v>0.6350673843705795</v>
       </c>
       <c r="Q19">
-        <v>60.00252979362169</v>
+        <v>60.00252979362193</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S19">
         <v>119.9977415921389</v>
@@ -11025,19 +11025,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350725979043318</v>
+        <v>0.6350725979043311</v>
       </c>
       <c r="O20">
         <v>1.100000023884847</v>
       </c>
       <c r="P20">
-        <v>0.6350673827565999</v>
+        <v>0.6350673827565986</v>
       </c>
       <c r="Q20">
-        <v>60.00252980944199</v>
+        <v>60.00252980944224</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S20">
         <v>119.9977418126637</v>
@@ -11087,22 +11087,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350725988789422</v>
+        <v>0.6350725988789414</v>
       </c>
       <c r="O21">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P21">
-        <v>0.6350673822186061</v>
+        <v>0.6350673822186046</v>
       </c>
       <c r="Q21">
-        <v>60.00252981471544</v>
+        <v>60.0025298147157</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S21">
-        <v>119.997741886172</v>
+        <v>119.9977418861719</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73781549470328</v>
+        <v>57.73781549470331</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3494331828789</v>
+        <v>333.349433182879</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11224,16 +11224,16 @@
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350725641468637</v>
+        <v>0.6350725641468636</v>
       </c>
       <c r="O2">
         <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6350674184895969</v>
+        <v>0.6350674184895968</v>
       </c>
       <c r="Q2">
-        <v>60.00252784543473</v>
+        <v>60.00252784543476</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -11286,22 +11286,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350725823189278</v>
+        <v>0.635072582318926</v>
       </c>
       <c r="O3">
         <v>1.100000023884846</v>
       </c>
       <c r="P3">
-        <v>0.6350674019914165</v>
+        <v>0.6350674019914156</v>
       </c>
       <c r="Q3">
-        <v>60.00252861750562</v>
+        <v>60.0025286175058</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S3">
-        <v>119.9977411910505</v>
+        <v>119.9977411910503</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -11348,22 +11348,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350726008365258</v>
+        <v>0.6350726008365226</v>
       </c>
       <c r="O4">
-        <v>1.100000023884846</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P4">
-        <v>0.6350673917695387</v>
+        <v>0.6350673917695362</v>
       </c>
       <c r="Q4">
-        <v>60.00252871770076</v>
+        <v>60.00252871770132</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S4">
-        <v>119.9977425877073</v>
+        <v>119.997742587707</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -11410,22 +11410,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350725969380836</v>
+        <v>0.6350725969380817</v>
       </c>
       <c r="O5">
         <v>1.100000023884847</v>
       </c>
       <c r="P5">
-        <v>0.6350673939215131</v>
+        <v>0.6350673939215103</v>
       </c>
       <c r="Q5">
-        <v>60.00252869660722</v>
+        <v>60.00252869660761</v>
       </c>
       <c r="R5">
         <v>-89.99999999999568</v>
       </c>
       <c r="S5">
-        <v>119.9977422936743</v>
+        <v>119.997742293674</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -11472,22 +11472,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350726027857458</v>
+        <v>0.635072602785744</v>
       </c>
       <c r="O6">
         <v>1.100000023884847</v>
       </c>
       <c r="P6">
-        <v>0.6350673906935516</v>
+        <v>0.6350673906935481</v>
       </c>
       <c r="Q6">
-        <v>60.0025287282479</v>
+        <v>60.00252872824836</v>
       </c>
       <c r="R6">
         <v>-89.99999999999565</v>
       </c>
       <c r="S6">
-        <v>119.9977427347238</v>
+        <v>119.9977427347235</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -11534,22 +11534,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350726076587977</v>
+        <v>0.6350726076587956</v>
       </c>
       <c r="O7">
-        <v>1.100000023884847</v>
+        <v>1.100000023884848</v>
       </c>
       <c r="P7">
-        <v>0.6350673880035835</v>
+        <v>0.6350673880035795</v>
       </c>
       <c r="Q7">
-        <v>60.00252875461512</v>
+        <v>60.00252875461567</v>
       </c>
       <c r="R7">
         <v>-89.99999999999562</v>
       </c>
       <c r="S7">
-        <v>119.9977431022651</v>
+        <v>119.9977431022647</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -11596,22 +11596,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350726086334083</v>
+        <v>0.6350726086334059</v>
       </c>
       <c r="O8">
-        <v>1.100000023884847</v>
+        <v>1.100000023884848</v>
       </c>
       <c r="P8">
-        <v>0.6350673874655897</v>
+        <v>0.6350673874655856</v>
       </c>
       <c r="Q8">
-        <v>60.00252875988857</v>
+        <v>60.00252875988915</v>
       </c>
       <c r="R8">
         <v>-89.99999999999562</v>
       </c>
       <c r="S8">
-        <v>119.9977431757734</v>
+        <v>119.9977431757729</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -11658,22 +11658,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350726105826286</v>
+        <v>0.6350726105826265</v>
       </c>
       <c r="O9">
         <v>1.100000023884848</v>
       </c>
       <c r="P9">
-        <v>0.6350673863896027</v>
+        <v>0.6350673863895986</v>
       </c>
       <c r="Q9">
-        <v>60.00252877043548</v>
+        <v>60.00252877043603</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999559</v>
+        <v>-89.99999999999561</v>
       </c>
       <c r="S9">
-        <v>119.9977433227899</v>
+        <v>119.9977433227894</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -11720,22 +11720,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350726125318494</v>
+        <v>0.6350726125318471</v>
       </c>
       <c r="O10">
         <v>1.100000023884848</v>
       </c>
       <c r="P10">
-        <v>0.6350673853136153</v>
+        <v>0.6350673853136113</v>
       </c>
       <c r="Q10">
-        <v>60.00252878098242</v>
+        <v>60.00252878098295</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S10">
-        <v>119.9977434698064</v>
+        <v>119.9977434698059</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -11782,22 +11782,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350726135064596</v>
+        <v>0.6350726135064574</v>
       </c>
       <c r="O11">
         <v>1.100000023884848</v>
       </c>
       <c r="P11">
-        <v>0.6350673847756214</v>
+        <v>0.6350673847756174</v>
       </c>
       <c r="Q11">
-        <v>60.00252878625589</v>
+        <v>60.00252878625643</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S11">
-        <v>119.9977435433146</v>
+        <v>119.9977435433141</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -11844,22 +11844,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350725852427589</v>
+        <v>0.635072585242757</v>
       </c>
       <c r="O12">
         <v>1.100000023884846</v>
       </c>
       <c r="P12">
-        <v>0.6350674003774349</v>
+        <v>0.6350674003774343</v>
       </c>
       <c r="Q12">
-        <v>60.00252863332602</v>
+        <v>60.00252863332619</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S12">
-        <v>119.9977414115752</v>
+        <v>119.997741411575</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -11906,22 +11906,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350725852427589</v>
+        <v>0.6350725852427572</v>
       </c>
       <c r="O13">
         <v>1.100000023884846</v>
       </c>
       <c r="P13">
-        <v>0.6350674003774351</v>
+        <v>0.6350674003774345</v>
       </c>
       <c r="Q13">
-        <v>60.00252863332604</v>
+        <v>60.00252863332619</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S13">
-        <v>119.9977414115752</v>
+        <v>119.997741411575</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -11968,22 +11968,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350725881665903</v>
+        <v>0.6350725881665882</v>
       </c>
       <c r="O14">
         <v>1.100000023884846</v>
       </c>
       <c r="P14">
-        <v>0.6350673987634553</v>
+        <v>0.6350673987634539</v>
       </c>
       <c r="Q14">
-        <v>60.00252864914616</v>
+        <v>60.00252864914646</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S14">
-        <v>119.9977416321</v>
+        <v>119.9977416320998</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -12030,22 +12030,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350725901158109</v>
+        <v>0.6350725901158092</v>
       </c>
       <c r="O15">
         <v>1.100000023884846</v>
       </c>
       <c r="P15">
-        <v>0.6350673976874679</v>
+        <v>0.6350673976874661</v>
       </c>
       <c r="Q15">
-        <v>60.00252865969315</v>
+        <v>60.00252865969343</v>
       </c>
       <c r="R15">
         <v>-89.99999999999569</v>
       </c>
       <c r="S15">
-        <v>119.9977417791165</v>
+        <v>119.9977417791163</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -12092,22 +12092,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350725842681485</v>
+        <v>0.6350725842681465</v>
       </c>
       <c r="O16">
         <v>1.100000023884846</v>
       </c>
       <c r="P16">
-        <v>0.6350674009154289</v>
+        <v>0.6350674009154282</v>
       </c>
       <c r="Q16">
-        <v>60.00252862805256</v>
+        <v>60.00252862805272</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S16">
-        <v>119.9977413380669</v>
+        <v>119.9977413380667</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -12154,22 +12154,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350725842681485</v>
+        <v>0.6350725842681468</v>
       </c>
       <c r="O17">
         <v>1.100000023884846</v>
       </c>
       <c r="P17">
-        <v>0.6350674009154291</v>
+        <v>0.6350674009154282</v>
       </c>
       <c r="Q17">
-        <v>60.00252862805256</v>
+        <v>60.00252862805271</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S17">
-        <v>119.997741338067</v>
+        <v>119.9977413380668</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -12216,22 +12216,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350725930396425</v>
+        <v>0.6350725930396398</v>
       </c>
       <c r="O18">
         <v>1.100000023884846</v>
       </c>
       <c r="P18">
-        <v>0.6350673960734878</v>
+        <v>0.6350673960734858</v>
       </c>
       <c r="Q18">
-        <v>60.00252867551329</v>
+        <v>60.00252867551371</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S18">
-        <v>119.9977419996413</v>
+        <v>119.997741999641</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -12278,22 +12278,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350725969380843</v>
+        <v>0.6350725969380812</v>
       </c>
       <c r="O19">
         <v>1.100000023884846</v>
       </c>
       <c r="P19">
-        <v>0.6350673939215133</v>
+        <v>0.6350673939215112</v>
       </c>
       <c r="Q19">
-        <v>60.00252869660701</v>
+        <v>60.00252869660749</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S19">
-        <v>119.9977422936743</v>
+        <v>119.997742293674</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -12340,22 +12340,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350725998619156</v>
+        <v>0.6350725998619123</v>
       </c>
       <c r="O20">
         <v>1.100000023884846</v>
       </c>
       <c r="P20">
-        <v>0.6350673923075324</v>
+        <v>0.63506739230753</v>
       </c>
       <c r="Q20">
-        <v>60.00252871242731</v>
+        <v>60.00252871242786</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S20">
-        <v>119.9977425141991</v>
+        <v>119.9977425141987</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -12402,22 +12402,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350726008365258</v>
+        <v>0.6350726008365227</v>
       </c>
       <c r="O21">
         <v>1.100000023884846</v>
       </c>
       <c r="P21">
-        <v>0.6350673917695387</v>
+        <v>0.6350673917695362</v>
       </c>
       <c r="Q21">
-        <v>60.00252871770076</v>
+        <v>60.00252871770131</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S21">
-        <v>119.9977425877073</v>
+        <v>119.997742587707</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -12669,10 +12669,10 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P4">
-        <v>1.096496879204243</v>
+        <v>1.096496879204242</v>
       </c>
       <c r="Q4">
-        <v>29.92212937400229</v>
+        <v>29.9221293740023</v>
       </c>
       <c r="R4">
         <v>-89.99999999999635</v>
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.090352551629789</v>
+        <v>1.090352551629788</v>
       </c>
       <c r="O8">
         <v>1.100000023842583</v>
@@ -13171,7 +13171,7 @@
         <v>29.92212936198631</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S12">
         <v>149.5246563017193</v>
@@ -13233,7 +13233,7 @@
         <v>29.92212936198631</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S13">
         <v>149.5246563017193</v>
@@ -13540,10 +13540,10 @@
         <v>1.096496879285568</v>
       </c>
       <c r="Q18">
-        <v>29.9221293679943</v>
+        <v>29.92212936799431</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S18">
         <v>149.5246563063338</v>
@@ -13605,7 +13605,7 @@
         <v>29.9221293709983</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S19">
         <v>149.5246563086411</v>
@@ -13664,7 +13664,7 @@
         <v>1.096496879214408</v>
       </c>
       <c r="Q20">
-        <v>29.9221293732513</v>
+        <v>29.92212937325129</v>
       </c>
       <c r="R20">
         <v>-89.99999999999635</v>
@@ -13723,10 +13723,10 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P21">
-        <v>1.096496879204243</v>
+        <v>1.096496879204242</v>
       </c>
       <c r="Q21">
-        <v>29.92212937400229</v>
+        <v>29.9221293740023</v>
       </c>
       <c r="R21">
         <v>-89.99999999999635</v>
@@ -14418,13 +14418,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P3">
-        <v>1.09649687938509</v>
+        <v>1.096496879385089</v>
       </c>
       <c r="Q3">
         <v>29.92212936052923</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S3">
         <v>149.5246563004598</v>
@@ -14486,7 +14486,7 @@
         <v>29.92212937479822</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246563114193</v>
@@ -14855,7 +14855,7 @@
         <v>1.096496879069955</v>
       </c>
       <c r="Q10">
-        <v>29.9221293838102</v>
+        <v>29.92212938381021</v>
       </c>
       <c r="R10">
         <v>-89.99999999999635</v>
@@ -14908,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.09035255165443</v>
+        <v>1.090352551654429</v>
       </c>
       <c r="O11">
         <v>1.100000023842583</v>
@@ -14917,7 +14917,7 @@
         <v>1.096496879059789</v>
       </c>
       <c r="Q11">
-        <v>29.9221293845612</v>
+        <v>29.92212938456121</v>
       </c>
       <c r="R11">
         <v>-89.99999999999635</v>
@@ -15354,7 +15354,7 @@
         <v>29.92212936879023</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S18">
         <v>149.5246563068048</v>
@@ -15475,7 +15475,7 @@
         <v>1.096496879202108</v>
       </c>
       <c r="Q20">
-        <v>29.92212937404721</v>
+        <v>29.92212937404722</v>
       </c>
       <c r="R20">
         <v>-89.99999999999636</v>
@@ -15540,7 +15540,7 @@
         <v>29.92212937479822</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246563114193</v>
@@ -15674,13 +15674,13 @@
         <v>0.5773317846526229</v>
       </c>
       <c r="Q2">
-        <v>60.00287276714362</v>
+        <v>60.00287276714363</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>119.997431871703</v>
+        <v>119.9974318717029</v>
       </c>
       <c r="T2">
         <v>46.19055539395241</v>
@@ -15727,13 +15727,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773371184169133</v>
+        <v>0.5773371184169135</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P3">
-        <v>0.5773317697850939</v>
+        <v>0.5773317697850943</v>
       </c>
       <c r="Q3">
         <v>60.00287353246908</v>
@@ -15742,7 +15742,7 @@
         <v>-89.99999999999588</v>
       </c>
       <c r="S3">
-        <v>119.9974328963524</v>
+        <v>119.9974328963523</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -15789,19 +15789,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202217</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P4">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614565</v>
       </c>
       <c r="Q4">
-        <v>60.00287303628517</v>
+        <v>60.0028730362851</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
         <v>119.9974348893884</v>
@@ -15851,22 +15851,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773371344458402</v>
+        <v>0.57733713444584</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P5">
-        <v>0.5773317651874855</v>
+        <v>0.5773317651874857</v>
       </c>
       <c r="Q5">
-        <v>60.00287314074482</v>
+        <v>60.00287314074484</v>
       </c>
       <c r="R5">
         <v>-89.99999999999594</v>
       </c>
       <c r="S5">
-        <v>119.9974344698019</v>
+        <v>119.9974344698018</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -15913,22 +15913,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773371408574111</v>
+        <v>0.5773371408574106</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962927</v>
+        <v>0.999999999996293</v>
       </c>
       <c r="P6">
-        <v>0.5773317633484423</v>
+        <v>0.5773317633484424</v>
       </c>
       <c r="Q6">
-        <v>60.00287298405514</v>
+        <v>60.00287298405517</v>
       </c>
       <c r="R6">
         <v>-89.99999999999595</v>
       </c>
       <c r="S6">
-        <v>119.9974350991817</v>
+        <v>119.9974350991816</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -15975,22 +15975,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773371462003867</v>
+        <v>0.5773371462003862</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P7">
-        <v>0.5773317618159062</v>
+        <v>0.5773317618159063</v>
       </c>
       <c r="Q7">
-        <v>60.00287285348041</v>
+        <v>60.00287285348044</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S7">
-        <v>119.9974356236649</v>
+        <v>119.9974356236648</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -16037,22 +16037,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773371472689818</v>
+        <v>0.5773371472689813</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962926</v>
       </c>
       <c r="P8">
-        <v>0.5773317615093989</v>
+        <v>0.577331761509399</v>
       </c>
       <c r="Q8">
         <v>60.00287282736547</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S8">
-        <v>119.9974357285615</v>
+        <v>119.9974357285614</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -16099,22 +16099,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773371494061721</v>
+        <v>0.5773371494061716</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962926</v>
       </c>
       <c r="P9">
-        <v>0.5773317608963846</v>
+        <v>0.5773317608963847</v>
       </c>
       <c r="Q9">
-        <v>60.00287277513556</v>
+        <v>60.00287277513559</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S9">
-        <v>119.9974359383548</v>
+        <v>119.9974359383547</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -16161,22 +16161,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773371515433625</v>
+        <v>0.5773371515433621</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962925</v>
       </c>
       <c r="P10">
-        <v>0.5773317602833702</v>
+        <v>0.5773317602833704</v>
       </c>
       <c r="Q10">
-        <v>60.00287272290565</v>
+        <v>60.00287272290568</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999599</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S10">
-        <v>119.9974361481481</v>
+        <v>119.997436148148</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -16223,22 +16223,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773371526119577</v>
+        <v>0.5773371526119573</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962925</v>
       </c>
       <c r="P11">
-        <v>0.577331759976863</v>
+        <v>0.5773317599768631</v>
       </c>
       <c r="Q11">
-        <v>60.0028726967907</v>
+        <v>60.00287269679073</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S11">
-        <v>119.9974362530447</v>
+        <v>119.9974362530446</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -16285,19 +16285,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577337121622699</v>
+        <v>0.5773371216226992</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P12">
-        <v>0.5773317688655721</v>
+        <v>0.5773317688655725</v>
       </c>
       <c r="Q12">
-        <v>60.00287345412424</v>
+        <v>60.00287345412422</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S12">
         <v>119.9974332110423</v>
@@ -16347,16 +16347,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773371216226989</v>
+        <v>0.5773371216226991</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962932</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P13">
-        <v>0.577331768865572</v>
+        <v>0.5773317688655726</v>
       </c>
       <c r="Q13">
-        <v>60.00287345412422</v>
+        <v>60.00287345412421</v>
       </c>
       <c r="R13">
         <v>-89.99999999999589</v>
@@ -16409,13 +16409,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773371248284841</v>
+        <v>0.5773371248284848</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P14">
-        <v>0.5773317679460502</v>
+        <v>0.5773317679460506</v>
       </c>
       <c r="Q14">
         <v>60.00287337577939</v>
@@ -16424,7 +16424,7 @@
         <v>-89.99999999999591</v>
       </c>
       <c r="S14">
-        <v>119.9974335257321</v>
+        <v>119.9974335257322</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -16474,13 +16474,13 @@
         <v>0.5773371269656744</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962934</v>
       </c>
       <c r="P15">
-        <v>0.577331767333036</v>
+        <v>0.5773317673330363</v>
       </c>
       <c r="Q15">
-        <v>60.00287332354947</v>
+        <v>60.00287332354949</v>
       </c>
       <c r="R15">
         <v>-89.99999999999591</v>
@@ -16533,19 +16533,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773371205541038</v>
+        <v>0.577337120554104</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P16">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720797</v>
       </c>
       <c r="Q16">
-        <v>60.0028734802392</v>
+        <v>60.00287348023917</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S16">
         <v>119.9974331061456</v>
@@ -16595,19 +16595,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773371205541038</v>
+        <v>0.5773371205541039</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P17">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720797</v>
       </c>
       <c r="Q17">
-        <v>60.00287348023918</v>
+        <v>60.00287348023917</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S17">
         <v>119.9974331061456</v>
@@ -16657,19 +16657,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773371301714597</v>
+        <v>0.5773371301714605</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P18">
-        <v>0.5773317664135137</v>
+        <v>0.5773317664135144</v>
       </c>
       <c r="Q18">
-        <v>60.0028732452047</v>
+        <v>60.00287324520465</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S18">
         <v>119.9974340502153</v>
@@ -16719,22 +16719,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773371344458402</v>
+        <v>0.5773371344458411</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P19">
-        <v>0.5773317651874846</v>
+        <v>0.5773317651874855</v>
       </c>
       <c r="Q19">
-        <v>60.00287314074493</v>
+        <v>60.00287314074487</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S19">
-        <v>119.9974344698018</v>
+        <v>119.9974344698019</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -16781,22 +16781,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773371376516255</v>
+        <v>0.5773371376516265</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P20">
-        <v>0.5773317642679627</v>
+        <v>0.5773317642679637</v>
       </c>
       <c r="Q20">
-        <v>60.00287306240011</v>
+        <v>60.00287306240004</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S20">
-        <v>119.9974347844917</v>
+        <v>119.9974347844918</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -16843,19 +16843,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202217</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P21">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614565</v>
       </c>
       <c r="Q21">
-        <v>60.00287303628517</v>
+        <v>60.0028730362851</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S21">
         <v>119.9974348893884</v>
@@ -16989,13 +16989,13 @@
         <v>0.5773317846526229</v>
       </c>
       <c r="Q2">
-        <v>60.00287276714362</v>
+        <v>60.00287276714363</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>119.997431871703</v>
+        <v>119.9974318717029</v>
       </c>
       <c r="T2">
         <v>46.19055539395241</v>
@@ -17042,13 +17042,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773371184169133</v>
+        <v>0.5773371184169135</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P3">
-        <v>0.5773317697850939</v>
+        <v>0.5773317697850943</v>
       </c>
       <c r="Q3">
         <v>60.00287353246908</v>
@@ -17057,7 +17057,7 @@
         <v>-89.99999999999588</v>
       </c>
       <c r="S3">
-        <v>119.9974328963524</v>
+        <v>119.9974328963523</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -17104,19 +17104,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202217</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P4">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614565</v>
       </c>
       <c r="Q4">
-        <v>60.00287303628517</v>
+        <v>60.0028730362851</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
         <v>119.9974348893884</v>
@@ -17166,22 +17166,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773371344458402</v>
+        <v>0.57733713444584</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P5">
-        <v>0.5773317651874855</v>
+        <v>0.5773317651874857</v>
       </c>
       <c r="Q5">
-        <v>60.00287314074482</v>
+        <v>60.00287314074484</v>
       </c>
       <c r="R5">
         <v>-89.99999999999594</v>
       </c>
       <c r="S5">
-        <v>119.9974344698019</v>
+        <v>119.9974344698018</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -17228,22 +17228,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773371408574111</v>
+        <v>0.5773371408574106</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962927</v>
+        <v>0.999999999996293</v>
       </c>
       <c r="P6">
-        <v>0.5773317633484423</v>
+        <v>0.5773317633484424</v>
       </c>
       <c r="Q6">
-        <v>60.00287298405514</v>
+        <v>60.00287298405517</v>
       </c>
       <c r="R6">
         <v>-89.99999999999595</v>
       </c>
       <c r="S6">
-        <v>119.9974350991817</v>
+        <v>119.9974350991816</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -17290,22 +17290,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773371462003867</v>
+        <v>0.5773371462003862</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P7">
-        <v>0.5773317618159062</v>
+        <v>0.5773317618159063</v>
       </c>
       <c r="Q7">
-        <v>60.00287285348041</v>
+        <v>60.00287285348044</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S7">
-        <v>119.9974356236649</v>
+        <v>119.9974356236648</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -17352,22 +17352,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773371472689818</v>
+        <v>0.5773371472689813</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962926</v>
       </c>
       <c r="P8">
-        <v>0.5773317615093989</v>
+        <v>0.577331761509399</v>
       </c>
       <c r="Q8">
         <v>60.00287282736547</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S8">
-        <v>119.9974357285615</v>
+        <v>119.9974357285614</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -17414,22 +17414,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773371494061721</v>
+        <v>0.5773371494061716</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962926</v>
       </c>
       <c r="P9">
-        <v>0.5773317608963846</v>
+        <v>0.5773317608963847</v>
       </c>
       <c r="Q9">
-        <v>60.00287277513556</v>
+        <v>60.00287277513559</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S9">
-        <v>119.9974359383548</v>
+        <v>119.9974359383547</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -17476,22 +17476,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773371515433625</v>
+        <v>0.5773371515433621</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962925</v>
       </c>
       <c r="P10">
-        <v>0.5773317602833702</v>
+        <v>0.5773317602833704</v>
       </c>
       <c r="Q10">
-        <v>60.00287272290565</v>
+        <v>60.00287272290568</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999599</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S10">
-        <v>119.9974361481481</v>
+        <v>119.997436148148</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -17538,22 +17538,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773371526119577</v>
+        <v>0.5773371526119573</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962925</v>
       </c>
       <c r="P11">
-        <v>0.577331759976863</v>
+        <v>0.5773317599768631</v>
       </c>
       <c r="Q11">
-        <v>60.0028726967907</v>
+        <v>60.00287269679073</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S11">
-        <v>119.9974362530447</v>
+        <v>119.9974362530446</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -17600,19 +17600,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577337121622699</v>
+        <v>0.5773371216226992</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P12">
-        <v>0.5773317688655721</v>
+        <v>0.5773317688655725</v>
       </c>
       <c r="Q12">
-        <v>60.00287345412424</v>
+        <v>60.00287345412422</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S12">
         <v>119.9974332110423</v>
@@ -17662,16 +17662,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773371216226989</v>
+        <v>0.5773371216226991</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962932</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P13">
-        <v>0.577331768865572</v>
+        <v>0.5773317688655726</v>
       </c>
       <c r="Q13">
-        <v>60.00287345412422</v>
+        <v>60.00287345412421</v>
       </c>
       <c r="R13">
         <v>-89.99999999999589</v>
@@ -17724,13 +17724,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773371248284841</v>
+        <v>0.5773371248284848</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P14">
-        <v>0.5773317679460502</v>
+        <v>0.5773317679460506</v>
       </c>
       <c r="Q14">
         <v>60.00287337577939</v>
@@ -17739,7 +17739,7 @@
         <v>-89.99999999999591</v>
       </c>
       <c r="S14">
-        <v>119.9974335257321</v>
+        <v>119.9974335257322</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -17789,13 +17789,13 @@
         <v>0.5773371269656744</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962934</v>
       </c>
       <c r="P15">
-        <v>0.577331767333036</v>
+        <v>0.5773317673330363</v>
       </c>
       <c r="Q15">
-        <v>60.00287332354947</v>
+        <v>60.00287332354949</v>
       </c>
       <c r="R15">
         <v>-89.99999999999591</v>
@@ -17848,19 +17848,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773371205541038</v>
+        <v>0.577337120554104</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P16">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720797</v>
       </c>
       <c r="Q16">
-        <v>60.0028734802392</v>
+        <v>60.00287348023917</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S16">
         <v>119.9974331061456</v>
@@ -17910,19 +17910,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773371205541038</v>
+        <v>0.5773371205541039</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P17">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720797</v>
       </c>
       <c r="Q17">
-        <v>60.00287348023918</v>
+        <v>60.00287348023917</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S17">
         <v>119.9974331061456</v>
@@ -17972,19 +17972,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773371301714597</v>
+        <v>0.5773371301714605</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P18">
-        <v>0.5773317664135137</v>
+        <v>0.5773317664135144</v>
       </c>
       <c r="Q18">
-        <v>60.0028732452047</v>
+        <v>60.00287324520465</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S18">
         <v>119.9974340502153</v>
@@ -18034,22 +18034,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773371344458402</v>
+        <v>0.5773371344458411</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P19">
-        <v>0.5773317651874846</v>
+        <v>0.5773317651874855</v>
       </c>
       <c r="Q19">
-        <v>60.00287314074493</v>
+        <v>60.00287314074487</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S19">
-        <v>119.9974344698018</v>
+        <v>119.9974344698019</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -18096,22 +18096,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773371376516255</v>
+        <v>0.5773371376516265</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P20">
-        <v>0.5773317642679627</v>
+        <v>0.5773317642679637</v>
       </c>
       <c r="Q20">
-        <v>60.00287306240011</v>
+        <v>60.00287306240004</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S20">
-        <v>119.9974347844917</v>
+        <v>119.9974347844918</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -18158,19 +18158,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202217</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P21">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614565</v>
       </c>
       <c r="Q21">
-        <v>60.00287303628517</v>
+        <v>60.0028730362851</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S21">
         <v>119.9974348893884</v>
@@ -18419,13 +18419,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.990048007738098</v>
+        <v>0.9900480077380981</v>
       </c>
       <c r="O4">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798888175243</v>
+        <v>0.9963798888175244</v>
       </c>
       <c r="Q4">
         <v>29.91230372088658</v>
@@ -18484,7 +18484,7 @@
         <v>0.9900480076939761</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P5">
         <v>0.996379888850407</v>
@@ -18546,13 +18546,13 @@
         <v>0.990048007760159</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P6">
         <v>0.9963798888010832</v>
       </c>
       <c r="Q6">
-        <v>29.91230372270408</v>
+        <v>29.91230372270407</v>
       </c>
       <c r="R6">
         <v>-89.99999999999636</v>
@@ -18670,7 +18670,7 @@
         <v>0.9900480078263423</v>
       </c>
       <c r="O8">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P8">
         <v>0.9963798887517593</v>
@@ -18794,10 +18794,10 @@
         <v>0.9900480078704643</v>
       </c>
       <c r="O10">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798887188767</v>
+        <v>0.9963798887188769</v>
       </c>
       <c r="Q10">
         <v>29.91230373179153</v>
@@ -18915,7 +18915,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9900480075616098</v>
+        <v>0.9900480075616096</v>
       </c>
       <c r="O12">
         <v>0.9999999999994827</v>
@@ -19039,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9900480075947011</v>
+        <v>0.9900480075947012</v>
       </c>
       <c r="O14">
         <v>0.9999999999994827</v>
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480076167624</v>
+        <v>0.9900480076167623</v>
       </c>
       <c r="O15">
         <v>0.9999999999994829</v>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480076939758</v>
+        <v>0.9900480076939761</v>
       </c>
       <c r="O19">
         <v>0.9999999999994827</v>
@@ -19473,13 +19473,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.990048007738098</v>
+        <v>0.9900480077380981</v>
       </c>
       <c r="O21">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P21">
-        <v>0.9963798888175243</v>
+        <v>0.9963798888175244</v>
       </c>
       <c r="Q21">
         <v>29.91230372088658</v>
@@ -19734,13 +19734,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.990048007738098</v>
+        <v>0.9900480077380981</v>
       </c>
       <c r="O4">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798888175243</v>
+        <v>0.9963798888175244</v>
       </c>
       <c r="Q4">
         <v>29.91230372088658</v>
@@ -19799,7 +19799,7 @@
         <v>0.9900480076939761</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P5">
         <v>0.996379888850407</v>
@@ -19861,13 +19861,13 @@
         <v>0.990048007760159</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P6">
         <v>0.9963798888010832</v>
       </c>
       <c r="Q6">
-        <v>29.91230372270408</v>
+        <v>29.91230372270407</v>
       </c>
       <c r="R6">
         <v>-89.99999999999636</v>
@@ -19985,7 +19985,7 @@
         <v>0.9900480078263423</v>
       </c>
       <c r="O8">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P8">
         <v>0.9963798887517593</v>
@@ -20109,10 +20109,10 @@
         <v>0.9900480078704643</v>
       </c>
       <c r="O10">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798887188767</v>
+        <v>0.9963798887188769</v>
       </c>
       <c r="Q10">
         <v>29.91230373179153</v>
@@ -20230,7 +20230,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9900480075616098</v>
+        <v>0.9900480075616096</v>
       </c>
       <c r="O12">
         <v>0.9999999999994827</v>
@@ -20354,7 +20354,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9900480075947011</v>
+        <v>0.9900480075947012</v>
       </c>
       <c r="O14">
         <v>0.9999999999994827</v>
@@ -20416,7 +20416,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480076167624</v>
+        <v>0.9900480076167623</v>
       </c>
       <c r="O15">
         <v>0.9999999999994829</v>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480076939758</v>
+        <v>0.9900480076939761</v>
       </c>
       <c r="O19">
         <v>0.9999999999994827</v>
@@ -20788,13 +20788,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.990048007738098</v>
+        <v>0.9900480077380981</v>
       </c>
       <c r="O21">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P21">
-        <v>0.9963798888175243</v>
+        <v>0.9963798888175244</v>
       </c>
       <c r="Q21">
         <v>29.91230372088658</v>
@@ -20895,7 +20895,7 @@
         <v>57.7361891589993</v>
       </c>
       <c r="D2">
-        <v>57.73665779988408</v>
+        <v>57.73665779988409</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -20904,10 +20904,10 @@
         <v>333.340043529314</v>
       </c>
       <c r="G2">
-        <v>333.3427492287238</v>
+        <v>333.3427492287239</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
@@ -20925,16 +20925,16 @@
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350546586525604</v>
+        <v>0.6350546586525606</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350546586685618</v>
+        <v>0.6350546586685617</v>
       </c>
       <c r="Q2">
-        <v>0.0002685308235050258</v>
+        <v>0.0002685308235283257</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20943,7 +20943,7 @@
         <v>-179.9997314682416</v>
       </c>
       <c r="T2">
-        <v>57.74060313987399</v>
+        <v>57.74060313987401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -20987,16 +20987,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350546429056423</v>
+        <v>0.6350546429056416</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350546760135926</v>
+        <v>0.6350546760135924</v>
       </c>
       <c r="Q3">
-        <v>0.0002695176214235225</v>
+        <v>0.000269517621513137</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -21049,16 +21049,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350546326853445</v>
+        <v>0.6350546326853421</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350546945307262</v>
+        <v>0.6350546945307259</v>
       </c>
       <c r="Q4">
-        <v>0.0002709143440116555</v>
+        <v>0.0002709143440598801</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -21111,16 +21111,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350546348369831</v>
+        <v>0.6350546348369821</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350546906323825</v>
+        <v>0.6350546906323816</v>
       </c>
       <c r="Q5">
-        <v>0.0002706202969112642</v>
+        <v>0.0002706202971268324</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -21173,22 +21173,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350546316095192</v>
+        <v>0.6350546316095181</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350546964798983</v>
+        <v>0.6350546964798973</v>
       </c>
       <c r="Q6">
-        <v>0.0002710613671195446</v>
+        <v>0.0002710613673914584</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9997306202297</v>
+        <v>-179.9997306202296</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -21235,22 +21235,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350546289199663</v>
+        <v>0.6350546289199647</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350547013528283</v>
+        <v>0.6350547013528268</v>
       </c>
       <c r="Q7">
-        <v>0.0002714289256454102</v>
+        <v>0.0002714289259461801</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9997305938255</v>
+        <v>-179.9997305938254</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -21297,16 +21297,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.635054628382056</v>
+        <v>0.6350546283820541</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350547023274143</v>
+        <v>0.6350547023274128</v>
       </c>
       <c r="Q8">
-        <v>0.0002715024373700344</v>
+        <v>0.0002715024376484578</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -21359,22 +21359,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350546273062345</v>
+        <v>0.6350546273062327</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350547042765862</v>
+        <v>0.6350547042765847</v>
       </c>
       <c r="Q9">
-        <v>0.0002716494607616616</v>
+        <v>0.0002716494610624315</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.999730577983</v>
+        <v>-179.9997305779829</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -21421,22 +21421,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350546262304131</v>
+        <v>0.6350546262304114</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350547062257581</v>
+        <v>0.6350547062257565</v>
       </c>
       <c r="Q10">
-        <v>0.0002717964841704757</v>
+        <v>0.0002717964844654624</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9997305674213</v>
+        <v>-179.9997305674212</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -21483,22 +21483,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350546256925024</v>
+        <v>0.6350546256925007</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.635054707200344</v>
+        <v>0.6350547072003425</v>
       </c>
       <c r="Q11">
-        <v>0.0002718699958779801</v>
+        <v>0.0002718699961671836</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9997305621405</v>
+        <v>-179.9997305621403</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -21545,16 +21545,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.63505464129191</v>
+        <v>0.635054641291909</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350546789373503</v>
+        <v>0.6350546789373502</v>
       </c>
       <c r="Q12">
-        <v>0.0002697381565230435</v>
+        <v>0.0002697381566014722</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -21607,16 +21607,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.63505464129191</v>
+        <v>0.6350546412919096</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350546789373502</v>
+        <v>0.6350546789373505</v>
       </c>
       <c r="Q13">
-        <v>0.0002697381564836098</v>
+        <v>0.0002697381566078617</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -21669,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350546396781798</v>
+        <v>0.6350546396781787</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -21678,13 +21678,13 @@
         <v>0.6350546818611084</v>
       </c>
       <c r="Q14">
-        <v>0.0002699586916905751</v>
+        <v>0.0002699586917579123</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9997306994422</v>
+        <v>-179.9997306994421</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -21731,16 +21731,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350546386023574</v>
+        <v>0.6350546386023566</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350546838102805</v>
+        <v>0.6350546838102799</v>
       </c>
       <c r="Q15">
-        <v>0.0002701057150092577</v>
+        <v>0.0002701057151590592</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -21793,16 +21793,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.635054641829821</v>
+        <v>0.6350546418298201</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350546779627644</v>
+        <v>0.6350546779627643</v>
       </c>
       <c r="Q16">
-        <v>0.0002696646448181033</v>
+        <v>0.0002696646449023151</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -21855,16 +21855,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.635054641829821</v>
+        <v>0.6350546418298203</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350546779627643</v>
+        <v>0.6350546779627644</v>
       </c>
       <c r="Q17">
-        <v>0.000269664644799669</v>
+        <v>0.0002696646449042757</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -21917,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350546369886277</v>
+        <v>0.6350546369886261</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -21926,7 +21926,7 @@
         <v>0.6350546867340383</v>
       </c>
       <c r="Q18">
-        <v>0.000270326250269405</v>
+        <v>0.0002703262503201486</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -21979,7 +21979,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350546348369862</v>
+        <v>0.6350546348369842</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -21988,7 +21988,7 @@
         <v>0.6350546906323822</v>
       </c>
       <c r="Q19">
-        <v>0.0002706202971544906</v>
+        <v>0.0002706202971796719</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -22041,22 +22041,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350546332232551</v>
+        <v>0.6350546332232527</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350546935561403</v>
+        <v>0.63505469355614</v>
       </c>
       <c r="Q20">
-        <v>0.0002708408323108713</v>
+        <v>0.0002708408323483967</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9997306360723</v>
+        <v>-179.9997306360722</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -22103,16 +22103,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350546326853445</v>
+        <v>0.6350546326853421</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350546945307262</v>
+        <v>0.6350546945307259</v>
       </c>
       <c r="Q21">
-        <v>0.0002709143440058723</v>
+        <v>0.000270914344054964</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -22207,16 +22207,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73618905602832</v>
+        <v>57.7361890560283</v>
       </c>
       <c r="D2">
-        <v>57.73665686329454</v>
+        <v>57.73665686329453</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3400429348108</v>
+        <v>333.3400429348106</v>
       </c>
       <c r="G2">
         <v>333.3427438213216</v>
@@ -22228,13 +22228,13 @@
         <v>0.1094384002926759</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714028</v>
+        <v>0.01094540889714029</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686273</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -22249,7 +22249,7 @@
         <v>0.6350546701028627</v>
       </c>
       <c r="Q2">
-        <v>0.0002680531534665988</v>
+        <v>0.0002680531535013745</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -22302,16 +22302,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350546535900897</v>
+        <v>0.6350546535900889</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350546882738473</v>
+        <v>0.6350546882738465</v>
       </c>
       <c r="Q3">
-        <v>0.0002690869418238774</v>
+        <v>0.0002690869418404287</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -22364,22 +22364,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350546433697914</v>
+        <v>0.6350546433697886</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350547067909806</v>
+        <v>0.6350547067909789</v>
       </c>
       <c r="Q4">
-        <v>0.0002704836643923487</v>
+        <v>0.0002704836642951258</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9997310733609</v>
+        <v>-179.9997310733607</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -22426,16 +22426,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350546455214301</v>
+        <v>0.635054645521429</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350547028926374</v>
+        <v>0.6350547028926354</v>
       </c>
       <c r="Q5">
-        <v>0.0002701896172693376</v>
+        <v>0.0002701896174343172</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -22488,22 +22488,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350546422939662</v>
+        <v>0.6350546422939649</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350547087401528</v>
+        <v>0.635054708740151</v>
       </c>
       <c r="Q6">
-        <v>0.0002706306874534155</v>
+        <v>0.0002706306876761071</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9997310627991</v>
+        <v>-179.9997310627989</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350546396044132</v>
+        <v>0.6350546396044113</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350547136130827</v>
+        <v>0.6350547136130805</v>
       </c>
       <c r="Q7">
-        <v>0.000270998245974966</v>
+        <v>0.0002709982462161234</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9997310363949</v>
+        <v>-179.9997310363948</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -22612,22 +22612,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350546390665024</v>
+        <v>0.6350546390665006</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350547145876688</v>
+        <v>0.6350547145876665</v>
       </c>
       <c r="Q8">
-        <v>0.0002710717576754486</v>
+        <v>0.0002710717579072275</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9997310311141</v>
+        <v>-179.999731031114</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -22674,22 +22674,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350546379906811</v>
+        <v>0.6350546379906795</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350547165368404</v>
+        <v>0.6350547165368383</v>
       </c>
       <c r="Q9">
-        <v>0.0002712187810726004</v>
+        <v>0.0002712187813253238</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9997310205524</v>
+        <v>-179.9997310205523</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -22736,22 +22736,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350546369148599</v>
+        <v>0.6350546369148581</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350547184860124</v>
+        <v>0.6350547184860101</v>
       </c>
       <c r="Q10">
-        <v>0.0002713658044767139</v>
+        <v>0.0002713658047294372</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9997310099907</v>
+        <v>-179.9997310099906</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -22798,22 +22798,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.635054636376949</v>
+        <v>0.6350546363769474</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350547194605983</v>
+        <v>0.6350547194605961</v>
       </c>
       <c r="Q11">
-        <v>0.000271439316181868</v>
+        <v>0.0002714393164345913</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9997310047099</v>
+        <v>-179.9997310047098</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -22860,22 +22860,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350546519763572</v>
+        <v>0.6350546519763566</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350546911976053</v>
+        <v>0.6350546911976045</v>
       </c>
       <c r="Q12">
-        <v>0.0002693074769283624</v>
+        <v>0.0002693074769323122</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.999731157854</v>
+        <v>-179.9997311578539</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -22922,22 +22922,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350546519763572</v>
+        <v>0.6350546519763569</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350546911976053</v>
+        <v>0.6350546911976045</v>
       </c>
       <c r="Q13">
-        <v>0.0002693074768649205</v>
+        <v>0.0002693074769227334</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.999731157854</v>
+        <v>-179.9997311578539</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -22984,22 +22984,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350546503626269</v>
+        <v>0.6350546503626254</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350546941213634</v>
+        <v>0.6350546941213622</v>
       </c>
       <c r="Q14">
-        <v>0.0002695280120891297</v>
+        <v>0.0002695280120799427</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9997311420116</v>
+        <v>-179.9997311420115</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -23046,22 +23046,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350546492868046</v>
+        <v>0.6350546492868037</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350546960705353</v>
+        <v>0.635054696070534</v>
       </c>
       <c r="Q15">
-        <v>0.000269675035394102</v>
+        <v>0.000269675035485962</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9997311314499</v>
+        <v>-179.9997311314498</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -23108,16 +23108,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350546525142682</v>
+        <v>0.6350546525142674</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350546902230193</v>
+        <v>0.6350546902230185</v>
       </c>
       <c r="Q16">
-        <v>0.0002692339652199894</v>
+        <v>0.0002692339652239391</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -23170,22 +23170,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350546525142682</v>
+        <v>0.6350546525142675</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350546902230193</v>
+        <v>0.6350546902230186</v>
       </c>
       <c r="Q17">
-        <v>0.0002692339651917118</v>
+        <v>0.0002692339652213412</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9997311631349</v>
+        <v>-179.9997311631348</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -23232,22 +23232,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.635054647673075</v>
+        <v>0.635054647673073</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.635054698994293</v>
+        <v>0.6350546989942917</v>
       </c>
       <c r="Q18">
-        <v>0.0002698955706637317</v>
+        <v>0.0002698955706120972</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9997311156075</v>
+        <v>-179.9997311156073</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -23294,22 +23294,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350546455214333</v>
+        <v>0.6350546455214308</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350547028926368</v>
+        <v>0.6350547028926353</v>
       </c>
       <c r="Q19">
-        <v>0.0002701896175388018</v>
+        <v>0.00027018961745825</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9997310944842</v>
+        <v>-179.999731094484</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -23356,22 +23356,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350546439077021</v>
+        <v>0.6350546439076992</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350547058163949</v>
+        <v>0.6350547058163929</v>
       </c>
       <c r="Q20">
-        <v>0.0002704101526939147</v>
+        <v>0.0002704101525915262</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9997310786417</v>
+        <v>-179.9997310786415</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350546433697914</v>
+        <v>0.6350546433697886</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350547067909806</v>
+        <v>0.6350547067909789</v>
       </c>
       <c r="Q21">
-        <v>0.0002704836643923487</v>
+        <v>0.0002704836643015265</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9997310733609</v>
+        <v>-179.9997310733607</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>5.123517109782726</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
@@ -23750,7 +23750,7 @@
         <v>1.090352558492168</v>
       </c>
       <c r="Q5">
-        <v>29.52465642363027</v>
+        <v>29.52465642363026</v>
       </c>
       <c r="R5">
         <v>-90.55768083460144</v>
@@ -23871,13 +23871,13 @@
         <v>1.086862152134945</v>
       </c>
       <c r="P7">
-        <v>1.090352558542508</v>
+        <v>1.090352558542507</v>
       </c>
       <c r="Q7">
         <v>29.52465642997524</v>
       </c>
       <c r="R7">
-        <v>-90.55768081989925</v>
+        <v>-90.55768081989926</v>
       </c>
       <c r="S7">
         <v>149.9221292610964</v>
@@ -24429,13 +24429,13 @@
         <v>1.086862152272345</v>
       </c>
       <c r="P16">
-        <v>1.090352558432676</v>
+        <v>1.090352558432677</v>
       </c>
       <c r="Q16">
         <v>29.52465641613167</v>
       </c>
       <c r="R16">
-        <v>-90.55768085197674</v>
+        <v>-90.55768085197673</v>
       </c>
       <c r="S16">
         <v>149.9221292430725</v>
@@ -24491,13 +24491,13 @@
         <v>1.086862152272345</v>
       </c>
       <c r="P17">
-        <v>1.090352558432676</v>
+        <v>1.090352558432677</v>
       </c>
       <c r="Q17">
         <v>29.52465641613167</v>
       </c>
       <c r="R17">
-        <v>-90.55768085197674</v>
+        <v>-90.55768085197673</v>
       </c>
       <c r="S17">
         <v>149.9221292430725</v>
@@ -24858,13 +24858,13 @@
         <v>0.1094384002926759</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714028</v>
+        <v>0.01094540889714029</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686273</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -25003,7 +25003,7 @@
         <v>1.090352558509866</v>
       </c>
       <c r="Q4">
-        <v>29.52465642631506</v>
+        <v>29.52465642631505</v>
       </c>
       <c r="R4">
         <v>-90.55768082819935</v>
@@ -25118,7 +25118,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.096496872238648</v>
+        <v>1.096496872238649</v>
       </c>
       <c r="O6">
         <v>1.0868621521498</v>
@@ -25189,7 +25189,7 @@
         <v>1.0903525585419</v>
       </c>
       <c r="Q7">
-        <v>29.52465643035277</v>
+        <v>29.52465643035276</v>
       </c>
       <c r="R7">
         <v>-90.55768081884341</v>
@@ -25375,7 +25375,7 @@
         <v>1.090352558564781</v>
       </c>
       <c r="Q10">
-        <v>29.52465643323685</v>
+        <v>29.52465643323684</v>
       </c>
       <c r="R10">
         <v>-90.5576808121606</v>
@@ -25437,7 +25437,7 @@
         <v>1.090352558569357</v>
       </c>
       <c r="Q11">
-        <v>29.52465643381365</v>
+        <v>29.52465643381366</v>
       </c>
       <c r="R11">
         <v>-90.55768081082404</v>
@@ -25561,7 +25561,7 @@
         <v>1.090352558436645</v>
       </c>
       <c r="Q13">
-        <v>29.524656417086</v>
+        <v>29.52465641708601</v>
       </c>
       <c r="R13">
         <v>-90.55768084958433</v>
@@ -25682,7 +25682,7 @@
         <v>1.086862152224225</v>
       </c>
       <c r="P15">
-        <v>1.090352558459527</v>
+        <v>1.090352558459526</v>
       </c>
       <c r="Q15">
         <v>29.52465641997009</v>
@@ -25933,7 +25933,7 @@
         <v>1.09035255849156</v>
       </c>
       <c r="Q19">
-        <v>29.52465642400779</v>
+        <v>29.5246564240078</v>
       </c>
       <c r="R19">
         <v>-90.55768083354559</v>
@@ -26057,7 +26057,7 @@
         <v>1.090352558509866</v>
       </c>
       <c r="Q21">
-        <v>29.52465642631506</v>
+        <v>29.52465642631505</v>
       </c>
       <c r="R21">
         <v>-90.55768082819935</v>
@@ -26152,7 +26152,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18907668571199</v>
+        <v>46.18907668571197</v>
       </c>
       <c r="D2">
         <v>46.18950210354603</v>
@@ -26170,7 +26170,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -26179,13 +26179,13 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
-        <v>0.5773186145024687</v>
+        <v>0.5773186145024688</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -26194,7 +26194,7 @@
         <v>0.5773186144816088</v>
       </c>
       <c r="Q2">
-        <v>0.0003047078022327568</v>
+        <v>0.0003047078022454489</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>-179.9996952927372</v>
       </c>
       <c r="T2">
-        <v>46.19308790992186</v>
+        <v>46.19308790992185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -26247,22 +26247,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773185996363969</v>
+        <v>0.5773185996363965</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773186308564657</v>
+        <v>0.5773186308564658</v>
       </c>
       <c r="Q3">
-        <v>0.0003057325834278347</v>
+        <v>0.0003057325834776941</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9996945272498</v>
+        <v>-179.9996945272499</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -26315,16 +26315,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597828</v>
       </c>
       <c r="Q4">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256561184252</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9996950232468</v>
+        <v>-179.9996950232469</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773185950404427</v>
+        <v>0.5773185950404419</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.577318646885401</v>
+        <v>0.5773186468854001</v>
       </c>
       <c r="Q5">
-        <v>0.0003073060618806023</v>
+        <v>0.0003073060618968692</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9996949188263</v>
+        <v>-179.9996949188265</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -26433,22 +26433,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773185932020615</v>
+        <v>0.5773185932020602</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.577318653296975</v>
+        <v>0.5773186532969736</v>
       </c>
       <c r="Q6">
-        <v>0.0003079354532812322</v>
+        <v>0.0003079354532663539</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9996950754569</v>
+        <v>-179.9996950754572</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -26495,22 +26495,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577318591670077</v>
+        <v>0.5773185916700757</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773186586399531</v>
+        <v>0.5773186586399516</v>
       </c>
       <c r="Q7">
-        <v>0.0003084599461170235</v>
+        <v>0.0003084599460752658</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9996952059824</v>
+        <v>-179.9996952059827</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -26557,22 +26557,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773185913636801</v>
+        <v>0.5773185913636788</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773186597085487</v>
+        <v>0.5773186597085471</v>
       </c>
       <c r="Q8">
-        <v>0.0003085648446527969</v>
+        <v>0.0003085648446327553</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9996952320875</v>
+        <v>-179.9996952320878</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -26619,22 +26619,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773185907508862</v>
+        <v>0.5773185907508849</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773186618457402</v>
+        <v>0.5773186618457387</v>
       </c>
       <c r="Q9">
-        <v>0.0003087746418110354</v>
+        <v>0.0003087746417629161</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9996952842977</v>
+        <v>-179.999695284298</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -26681,22 +26681,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773185901380925</v>
+        <v>0.5773185901380912</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773186639829316</v>
+        <v>0.5773186639829301</v>
       </c>
       <c r="Q10">
-        <v>0.0003089844389392091</v>
+        <v>0.0003089844388974512</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.999695336508</v>
+        <v>-179.9996953365083</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773185898316956</v>
+        <v>0.5773185898316943</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773186650515274</v>
+        <v>0.5773186650515258</v>
       </c>
       <c r="Q11">
-        <v>0.0003090893375019144</v>
+        <v>0.0003090893374601565</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9996953626131</v>
+        <v>-179.9996953626134</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -26805,22 +26805,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172054</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.577318634062253</v>
+        <v>0.5773186340622531</v>
       </c>
       <c r="Q12">
-        <v>0.0003060472791147639</v>
+        <v>0.0003060472791589036</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9996946055651</v>
+        <v>-179.9996946055652</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -26867,22 +26867,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172057</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773186340622528</v>
+        <v>0.577318634062253</v>
       </c>
       <c r="Q13">
-        <v>0.0003060472790613747</v>
+        <v>0.0003060472791494565</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9996946055651</v>
+        <v>-179.9996946055652</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773185977980146</v>
+        <v>0.5773185977980144</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773186372680397</v>
+        <v>0.5773186372680399</v>
       </c>
       <c r="Q14">
-        <v>0.0003063619747672328</v>
+        <v>0.0003063619748433092</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9996946838804</v>
+        <v>-179.9996946838805</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -26991,22 +26991,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773185971852213</v>
+        <v>0.5773185971852206</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773186394052312</v>
+        <v>0.5773186394052309</v>
       </c>
       <c r="Q15">
-        <v>0.000306571771923021</v>
+        <v>0.0003065717719688416</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9996947360906</v>
+        <v>-179.9996947360907</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -27053,22 +27053,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236025</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773186329936574</v>
+        <v>0.5773186329936575</v>
       </c>
       <c r="Q16">
-        <v>0.0003059423805532767</v>
+        <v>0.0003059423806165007</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.99969457946</v>
+        <v>-179.9996945794601</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -27115,22 +27115,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236026</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773186329936572</v>
+        <v>0.5773186329936574</v>
       </c>
       <c r="Q17">
-        <v>0.000305942380525701</v>
+        <v>0.0003059423805969931</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.99969457946</v>
+        <v>-179.9996945794601</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -27177,22 +27177,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773185962660295</v>
+        <v>0.5773185962660294</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773186426110177</v>
+        <v>0.5773186426110181</v>
       </c>
       <c r="Q18">
-        <v>0.0003068864675365326</v>
+        <v>0.0003068864676463556</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.999694814406</v>
+        <v>-179.9996948144061</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -27239,22 +27239,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773185950404416</v>
+        <v>0.5773185950404414</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773186468854002</v>
+        <v>0.5773186468854004</v>
       </c>
       <c r="Q19">
-        <v>0.0003073060617433438</v>
+        <v>0.0003073060618822848</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9996949188264</v>
+        <v>-179.9996949188265</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -27301,22 +27301,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773185941212506</v>
+        <v>0.5773185941212505</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773186500911872</v>
+        <v>0.5773186500911871</v>
       </c>
       <c r="Q20">
-        <v>0.0003076207573873529</v>
+        <v>0.0003076207575626241</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9996949971417</v>
+        <v>-179.9996949971418</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -27369,16 +27369,16 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597829</v>
       </c>
       <c r="Q21">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256561158584</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9996950232468</v>
+        <v>-179.9996950232469</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -27963,7 +27963,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18907668571199</v>
+        <v>46.18907668571197</v>
       </c>
       <c r="D2">
         <v>46.18950210354603</v>
@@ -27981,7 +27981,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -27990,13 +27990,13 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
-        <v>0.5773186145024687</v>
+        <v>0.5773186145024688</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -28005,7 +28005,7 @@
         <v>0.5773186144816088</v>
       </c>
       <c r="Q2">
-        <v>0.0003047078022327568</v>
+        <v>0.0003047078022454489</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>-179.9996952927372</v>
       </c>
       <c r="T2">
-        <v>46.19308790992186</v>
+        <v>46.19308790992185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773185996363969</v>
+        <v>0.5773185996363965</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773186308564657</v>
+        <v>0.5773186308564658</v>
       </c>
       <c r="Q3">
-        <v>0.0003057325834278347</v>
+        <v>0.0003057325834776941</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9996945272498</v>
+        <v>-179.9996945272499</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -28126,16 +28126,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597828</v>
       </c>
       <c r="Q4">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256561184252</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9996950232468</v>
+        <v>-179.9996950232469</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -28182,22 +28182,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773185950404427</v>
+        <v>0.5773185950404419</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.577318646885401</v>
+        <v>0.5773186468854001</v>
       </c>
       <c r="Q5">
-        <v>0.0003073060618806023</v>
+        <v>0.0003073060618968692</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9996949188263</v>
+        <v>-179.9996949188265</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -28244,22 +28244,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773185932020615</v>
+        <v>0.5773185932020602</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.577318653296975</v>
+        <v>0.5773186532969736</v>
       </c>
       <c r="Q6">
-        <v>0.0003079354532812322</v>
+        <v>0.0003079354532663539</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9996950754569</v>
+        <v>-179.9996950754572</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -28306,22 +28306,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577318591670077</v>
+        <v>0.5773185916700757</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773186586399531</v>
+        <v>0.5773186586399516</v>
       </c>
       <c r="Q7">
-        <v>0.0003084599461170235</v>
+        <v>0.0003084599460752658</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9996952059824</v>
+        <v>-179.9996952059827</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -28368,22 +28368,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773185913636801</v>
+        <v>0.5773185913636788</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773186597085487</v>
+        <v>0.5773186597085471</v>
       </c>
       <c r="Q8">
-        <v>0.0003085648446527969</v>
+        <v>0.0003085648446327553</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9996952320875</v>
+        <v>-179.9996952320878</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -28430,22 +28430,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773185907508862</v>
+        <v>0.5773185907508849</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773186618457402</v>
+        <v>0.5773186618457387</v>
       </c>
       <c r="Q9">
-        <v>0.0003087746418110354</v>
+        <v>0.0003087746417629161</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9996952842977</v>
+        <v>-179.999695284298</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -28492,22 +28492,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773185901380925</v>
+        <v>0.5773185901380912</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773186639829316</v>
+        <v>0.5773186639829301</v>
       </c>
       <c r="Q10">
-        <v>0.0003089844389392091</v>
+        <v>0.0003089844388974512</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.999695336508</v>
+        <v>-179.9996953365083</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -28554,22 +28554,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773185898316956</v>
+        <v>0.5773185898316943</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773186650515274</v>
+        <v>0.5773186650515258</v>
       </c>
       <c r="Q11">
-        <v>0.0003090893375019144</v>
+        <v>0.0003090893374601565</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9996953626131</v>
+        <v>-179.9996953626134</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -28616,22 +28616,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172054</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.577318634062253</v>
+        <v>0.5773186340622531</v>
       </c>
       <c r="Q12">
-        <v>0.0003060472791147639</v>
+        <v>0.0003060472791589036</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9996946055651</v>
+        <v>-179.9996946055652</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -28678,22 +28678,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172057</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773186340622528</v>
+        <v>0.577318634062253</v>
       </c>
       <c r="Q13">
-        <v>0.0003060472790613747</v>
+        <v>0.0003060472791494565</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9996946055651</v>
+        <v>-179.9996946055652</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -28740,22 +28740,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773185977980146</v>
+        <v>0.5773185977980144</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773186372680397</v>
+        <v>0.5773186372680399</v>
       </c>
       <c r="Q14">
-        <v>0.0003063619747672328</v>
+        <v>0.0003063619748433092</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9996946838804</v>
+        <v>-179.9996946838805</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -28802,22 +28802,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773185971852213</v>
+        <v>0.5773185971852206</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773186394052312</v>
+        <v>0.5773186394052309</v>
       </c>
       <c r="Q15">
-        <v>0.000306571771923021</v>
+        <v>0.0003065717719688416</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9996947360906</v>
+        <v>-179.9996947360907</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -28864,22 +28864,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236025</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773186329936574</v>
+        <v>0.5773186329936575</v>
       </c>
       <c r="Q16">
-        <v>0.0003059423805532767</v>
+        <v>0.0003059423806165007</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.99969457946</v>
+        <v>-179.9996945794601</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -28926,22 +28926,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236026</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773186329936572</v>
+        <v>0.5773186329936574</v>
       </c>
       <c r="Q17">
-        <v>0.000305942380525701</v>
+        <v>0.0003059423805969931</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.99969457946</v>
+        <v>-179.9996945794601</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -28988,22 +28988,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773185962660295</v>
+        <v>0.5773185962660294</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773186426110177</v>
+        <v>0.5773186426110181</v>
       </c>
       <c r="Q18">
-        <v>0.0003068864675365326</v>
+        <v>0.0003068864676463556</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.999694814406</v>
+        <v>-179.9996948144061</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -29050,22 +29050,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773185950404416</v>
+        <v>0.5773185950404414</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773186468854002</v>
+        <v>0.5773186468854004</v>
       </c>
       <c r="Q19">
-        <v>0.0003073060617433438</v>
+        <v>0.0003073060618822848</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9996949188264</v>
+        <v>-179.9996949188265</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -29112,22 +29112,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773185941212506</v>
+        <v>0.5773185941212505</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773186500911872</v>
+        <v>0.5773186500911871</v>
       </c>
       <c r="Q20">
-        <v>0.0003076207573873529</v>
+        <v>0.0003076207575626241</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9996949971417</v>
+        <v>-179.9996949971418</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -29180,16 +29180,16 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597829</v>
       </c>
       <c r="Q21">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256561158584</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9996950232468</v>
+        <v>-179.9996950232469</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -29296,7 +29296,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -29305,10 +29305,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.9963798800464844</v>
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.996379879761804</v>
+        <v>0.9963798797618041</v>
       </c>
       <c r="O3">
         <v>0.9864427565220329</v>
@@ -29497,7 +29497,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9963798796384948</v>
+        <v>0.9963798796384947</v>
       </c>
       <c r="O5">
         <v>0.9864427565615096</v>
@@ -29559,13 +29559,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798795891712</v>
+        <v>0.9963798795891711</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
       </c>
       <c r="P6">
-        <v>0.990048016950305</v>
+        <v>0.9900480169503051</v>
       </c>
       <c r="Q6">
         <v>29.4607569476879</v>
@@ -29621,13 +29621,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798795480683</v>
+        <v>0.9963798795480679</v>
       </c>
       <c r="O7">
         <v>0.9864427565904591</v>
       </c>
       <c r="P7">
-        <v>0.9900480170054576</v>
+        <v>0.9900480170054574</v>
       </c>
       <c r="Q7">
         <v>29.46075695267345</v>
@@ -29683,13 +29683,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798795398476</v>
+        <v>0.9963798795398473</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
       </c>
       <c r="P8">
-        <v>0.9900480170164879</v>
+        <v>0.990048017016488</v>
       </c>
       <c r="Q8">
         <v>29.46075695367056</v>
@@ -29745,7 +29745,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9963798795234062</v>
+        <v>0.9963798795234061</v>
       </c>
       <c r="O9">
         <v>0.9864427565983545</v>
@@ -29807,7 +29807,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.996379879506965</v>
+        <v>0.9963798795069649</v>
       </c>
       <c r="O10">
         <v>0.9864427566036181</v>
@@ -29875,13 +29875,13 @@
         <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480170716406</v>
+        <v>0.9900480170716407</v>
       </c>
       <c r="Q11">
         <v>29.46075695865611</v>
       </c>
       <c r="R11">
-        <v>-90.63269602529786</v>
+        <v>-90.63269602529788</v>
       </c>
       <c r="S11">
         <v>149.9123035584836</v>
@@ -30055,10 +30055,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798797124803</v>
+        <v>0.9963798797124804</v>
       </c>
       <c r="O14">
-        <v>0.9864427565378235</v>
+        <v>0.9864427565378237</v>
       </c>
       <c r="P14">
         <v>0.9900480167848473</v>
@@ -30185,7 +30185,7 @@
         <v>0.9864427565272964</v>
       </c>
       <c r="P16">
-        <v>0.9900480167407255</v>
+        <v>0.9900480167407254</v>
       </c>
       <c r="Q16">
         <v>29.46075692874281</v>
@@ -30368,7 +30368,7 @@
         <v>0.9963798796384947</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.990048016884122</v>
@@ -30433,13 +30433,13 @@
         <v>0.9864427565694048</v>
       </c>
       <c r="P20">
-        <v>0.9900480169172134</v>
+        <v>0.9900480169172136</v>
       </c>
       <c r="Q20">
-        <v>29.46075694469656</v>
+        <v>29.46075694469657</v>
       </c>
       <c r="R20">
-        <v>-90.63269605224076</v>
+        <v>-90.63269605224075</v>
       </c>
       <c r="S20">
         <v>149.9123035457611</v>
@@ -30611,7 +30611,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -30620,10 +30620,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.9963798800464844</v>
@@ -30688,7 +30688,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.996379879761804</v>
+        <v>0.9963798797618041</v>
       </c>
       <c r="O3">
         <v>0.9864427565220329</v>
@@ -30812,7 +30812,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9963798796384948</v>
+        <v>0.9963798796384947</v>
       </c>
       <c r="O5">
         <v>0.9864427565615096</v>
@@ -30874,13 +30874,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798795891712</v>
+        <v>0.9963798795891711</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
       </c>
       <c r="P6">
-        <v>0.990048016950305</v>
+        <v>0.9900480169503051</v>
       </c>
       <c r="Q6">
         <v>29.4607569476879</v>
@@ -30936,13 +30936,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798795480683</v>
+        <v>0.9963798795480679</v>
       </c>
       <c r="O7">
         <v>0.9864427565904591</v>
       </c>
       <c r="P7">
-        <v>0.9900480170054576</v>
+        <v>0.9900480170054574</v>
       </c>
       <c r="Q7">
         <v>29.46075695267345</v>
@@ -30998,13 +30998,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798795398476</v>
+        <v>0.9963798795398473</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
       </c>
       <c r="P8">
-        <v>0.9900480170164879</v>
+        <v>0.990048017016488</v>
       </c>
       <c r="Q8">
         <v>29.46075695367056</v>
@@ -31060,7 +31060,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9963798795234062</v>
+        <v>0.9963798795234061</v>
       </c>
       <c r="O9">
         <v>0.9864427565983545</v>
@@ -31122,7 +31122,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.996379879506965</v>
+        <v>0.9963798795069649</v>
       </c>
       <c r="O10">
         <v>0.9864427566036181</v>
@@ -31190,13 +31190,13 @@
         <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480170716406</v>
+        <v>0.9900480170716407</v>
       </c>
       <c r="Q11">
         <v>29.46075695865611</v>
       </c>
       <c r="R11">
-        <v>-90.63269602529786</v>
+        <v>-90.63269602529788</v>
       </c>
       <c r="S11">
         <v>149.9123035584836</v>
@@ -31370,10 +31370,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798797124803</v>
+        <v>0.9963798797124804</v>
       </c>
       <c r="O14">
-        <v>0.9864427565378235</v>
+        <v>0.9864427565378237</v>
       </c>
       <c r="P14">
         <v>0.9900480167848473</v>
@@ -31500,7 +31500,7 @@
         <v>0.9864427565272964</v>
       </c>
       <c r="P16">
-        <v>0.9900480167407255</v>
+        <v>0.9900480167407254</v>
       </c>
       <c r="Q16">
         <v>29.46075692874281</v>
@@ -31683,7 +31683,7 @@
         <v>0.9963798796384947</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.990048016884122</v>
@@ -31748,13 +31748,13 @@
         <v>0.9864427565694048</v>
       </c>
       <c r="P20">
-        <v>0.9900480169172134</v>
+        <v>0.9900480169172136</v>
       </c>
       <c r="Q20">
-        <v>29.46075694469656</v>
+        <v>29.46075694469657</v>
       </c>
       <c r="R20">
-        <v>-90.63269605224076</v>
+        <v>-90.63269605224075</v>
       </c>
       <c r="S20">
         <v>149.9123035457611</v>
@@ -34385,22 +34385,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.0000028350735</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="D2">
-        <v>50.0000028350735</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="G2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
@@ -34424,10 +34424,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833882</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.692344207065613E-11</v>
+        <v>-8.69156031086506E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34477,16 +34477,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279482343816</v>
+        <v>0.9526279482343815</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279813293725</v>
+        <v>0.9526279813293731</v>
       </c>
       <c r="Q3">
-        <v>8.313209709952376E-08</v>
+        <v>8.313214586171735E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -34536,16 +34536,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279338656304</v>
+        <v>0.9526279338656295</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279956981213</v>
+        <v>0.952627995698122</v>
       </c>
       <c r="Q4">
-        <v>5.152361210745467E-07</v>
+        <v>5.152361154073342E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -34595,22 +34595,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279368906287</v>
+        <v>0.9526279368906292</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279926731219</v>
+        <v>0.9526279926731225</v>
       </c>
       <c r="Q5">
-        <v>4.242666813105824E-07</v>
+        <v>4.242667823028765E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995757242</v>
+        <v>179.9999995757243</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -34654,22 +34654,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279323531278</v>
+        <v>0.9526279323531284</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279972106217</v>
+        <v>0.9526279972106225</v>
       </c>
       <c r="Q6">
-        <v>5.607205153172291E-07</v>
+        <v>5.607206386088299E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994392703</v>
+        <v>179.9999994392704</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -34713,22 +34713,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279285718769</v>
+        <v>0.9526279285718776</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280009918715</v>
+        <v>0.9526280009918725</v>
       </c>
       <c r="Q7">
-        <v>6.744320546427133E-07</v>
+        <v>6.744321810524122E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999993255588</v>
+        <v>179.9999993255589</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279278156268</v>
+        <v>0.9526279278156276</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280017481213</v>
+        <v>0.9526280017481227</v>
       </c>
       <c r="Q8">
-        <v>6.971743643988781E-07</v>
+        <v>6.971744878051246E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -34831,22 +34831,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279263031264</v>
+        <v>0.9526279263031272</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280032606214</v>
+        <v>0.9526280032606224</v>
       </c>
       <c r="Q9">
-        <v>7.426589815076927E-07</v>
+        <v>7.426591040621433E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992573318</v>
+        <v>179.9999992573319</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -34890,22 +34890,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279247906262</v>
+        <v>0.9526279247906269</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280047731213</v>
+        <v>0.9526280047731224</v>
       </c>
       <c r="Q10">
-        <v>7.88143595449788E-07</v>
+        <v>7.881437180042199E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992118472</v>
+        <v>179.9999992118473</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -34949,22 +34949,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279240343761</v>
+        <v>0.9526279240343769</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280055293714</v>
+        <v>0.9526280055293727</v>
       </c>
       <c r="Q11">
-        <v>8.108858999299019E-07</v>
+        <v>8.108860263395447E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999991891049</v>
+        <v>179.999999189105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -35008,16 +35008,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279459656308</v>
+        <v>0.9526279459656305</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279835981226</v>
+        <v>0.9526279835981232</v>
       </c>
       <c r="Q12">
-        <v>1.513590059683538E-07</v>
+        <v>1.513590514930951E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -35073,10 +35073,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279835981223</v>
+        <v>0.9526279835981232</v>
       </c>
       <c r="Q13">
-        <v>1.51358983260532E-07</v>
+        <v>1.513590569568881E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -35126,22 +35126,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627943696881</v>
+        <v>0.9526279436968808</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279858668719</v>
+        <v>0.9526279858668727</v>
       </c>
       <c r="Q14">
-        <v>2.195859937277347E-07</v>
+        <v>2.195860252992669E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.999999780405</v>
+        <v>179.9999997804051</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -35185,22 +35185,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.95262794218438</v>
+        <v>0.9526279421843801</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.952627987379372</v>
+        <v>0.9526279873793727</v>
       </c>
       <c r="Q15">
-        <v>2.650705414263783E-07</v>
+        <v>2.650706179853655E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997349204</v>
+        <v>179.9999997349205</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -35244,16 +35244,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627946721881</v>
+        <v>0.9526279467218808</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279828418726</v>
+        <v>0.9526279828418731</v>
       </c>
       <c r="Q16">
-        <v>1.28616698680162E-07</v>
+        <v>1.286167480601278E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -35303,16 +35303,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279467218811</v>
+        <v>0.9526279467218809</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418721</v>
+        <v>0.9526279828418729</v>
       </c>
       <c r="Q17">
-        <v>1.286166967112127E-07</v>
+        <v>1.286167495465961E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -35362,22 +35362,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279399156308</v>
+        <v>0.9526279399156301</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279896481216</v>
+        <v>0.9526279896481225</v>
       </c>
       <c r="Q18">
-        <v>3.332975885122843E-07</v>
+        <v>3.332975927185887E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996666934</v>
+        <v>179.9999996666935</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -35421,16 +35421,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279368906307</v>
+        <v>0.95262793689063</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279926731215</v>
+        <v>0.9526279926731223</v>
       </c>
       <c r="Q19">
-        <v>4.242668641753503E-07</v>
+        <v>4.24266843378117E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -35480,22 +35480,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279346218806</v>
+        <v>0.9526279346218796</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279949418713</v>
+        <v>0.9526279949418721</v>
       </c>
       <c r="Q20">
-        <v>4.924938149791675E-07</v>
+        <v>4.924938043036334E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999995074972</v>
+        <v>179.9999995074973</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -35539,16 +35539,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656304</v>
+        <v>0.9526279338656295</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279956981213</v>
+        <v>0.952627995698122</v>
       </c>
       <c r="Q21">
-        <v>5.152361287849824E-07</v>
+        <v>5.152361103990059E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
